--- a/templates/NHWA_Module_3.xlsx
+++ b/templates/NHWA_Module_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F38C16B-99AA-40D5-B042-37DBFCC94776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB4F12F-0277-4CCE-A2F6-2A8C40B2C9A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DNdhLaiJYJ2ZbD09elSFCyIbsfmsCvuMR7TLpKKqcWr+WHl4whasq0ZZ0A0eyWjFnXr15kGsuJqYxaWBtC5Tlw==" workbookSaltValue="6xngd8mX30SibXiPrW6QDg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="10995" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="783">
   <si>
     <t>REGION:</t>
   </si>
@@ -2380,6 +2380,12 @@
   </si>
   <si>
     <t>Existence of in-service training as an element of national education plans for health workers (3-09)</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -9401,8 +9407,8 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>2</v>
+      <c r="B8" s="18" t="s">
+        <v>781</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>764</v>
@@ -9458,8 +9464,8 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>3</v>
+      <c r="B9" s="18" t="s">
+        <v>782</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>758</v>
@@ -9517,7 +9523,7 @@
     </row>
     <row r="10" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>759</v>
@@ -9575,7 +9581,7 @@
     </row>
     <row r="11" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>771</v>
@@ -9640,7 +9646,7 @@
     </row>
     <row r="12" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>761</v>
@@ -9706,7 +9712,7 @@
     </row>
     <row r="13" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>762</v>
@@ -16908,7 +16914,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/4eIEGQ/5t7ulREnGNolTubw6ezXTyImyPeHBPDmh/MlVd4RBqkf/1CiN5+NjO0e/gLki1rN2vBDee0cv45fSw==" saltValue="6t9wvxLr4JuHu9koTcbjtA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="g+XTd9Ea1/wrkyQO1WUoGBwW0yVMxFSMjqpUCRp3XGfsPUV9cXXx/cV8pq24Ip6vO18PVuzF2Nc+lAIpWub1IA==" saltValue="tI/UlwS/F93GO5FsYCEIsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -17113,7 +17119,7 @@
   <dimension ref="A1:AT50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17482,8 +17488,8 @@
       <c r="AM7" s="47"/>
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>2</v>
+      <c r="B8" s="18" t="s">
+        <v>781</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>764</v>
@@ -17592,8 +17598,8 @@
       <c r="AM8" s="47"/>
     </row>
     <row r="9" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>3</v>
+      <c r="B9" s="18" t="s">
+        <v>782</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>758</v>
@@ -17703,7 +17709,7 @@
     </row>
     <row r="10" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>759</v>
@@ -17813,7 +17819,7 @@
     </row>
     <row r="11" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>760</v>
@@ -17923,7 +17929,7 @@
     </row>
     <row r="12" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>761</v>
@@ -18033,7 +18039,7 @@
     </row>
     <row r="13" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>762</v>
@@ -19061,7 +19067,7 @@
       <c r="N50" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="va+lyVm3QvpBvRMvMsqX1MDCLFOOpsG5HDvJHUkzMW23nH27o+lffmGycEyBAURcJlo/ZrPxSVoVAdgt1xWMmQ==" saltValue="8hfqmoatDfbBl/OrluzHwA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ljDquv1huWCnpOIF7YiSP0jUSc1eDTucmloqVk2QdN+Bet7D++lfuSPoSJMPBZMzcPAulA9HoM6XW/0ALsHmgQ==" saltValue="H5kwDFAfJSRdoVYBvjyL8w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
@@ -20008,7 +20014,7 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20218,8 +20224,8 @@
       <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>2</v>
+      <c r="B8" s="18" t="s">
+        <v>781</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>764</v>
@@ -20260,8 +20266,8 @@
       <c r="O8" s="47"/>
     </row>
     <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>3</v>
+      <c r="B9" s="18" t="s">
+        <v>782</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>758</v>
@@ -20303,7 +20309,7 @@
     </row>
     <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>759</v>
@@ -20345,7 +20351,7 @@
     </row>
     <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>760</v>
@@ -20387,7 +20393,7 @@
     </row>
     <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>761</v>
@@ -20429,7 +20435,7 @@
     </row>
     <row r="13" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>762</v>
@@ -20996,7 +21002,7 @@
       <c r="N50" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9UOlREsPX1gm4TvH/kTbhoMaKUSF2WsFWJ9zkWKohkqQKwY1qKJpyKIfSf0N6D33DZZoL6zIMrManpWNLMCWaA==" saltValue="YF11L8C3W2P4+RVOBV8ujA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/bvW5QcB071b9vzZYL2cr5ZHPkmJVAl1eCLjelrz0qXzRMkUs8MthKy4oAlPf0fDgUADjcXClxgNbU5FCEkEGg==" saltValue="e7W8esKZt36hC/IZmTJWNg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>

--- a/templates/NHWA_Module_3.xlsx
+++ b/templates/NHWA_Module_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\sfera\workspace\EST\NHWA-Excel-Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB4F12F-0277-4CCE-A2F6-2A8C40B2C9A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16ECAAE-A1A9-4E29-A10A-F777076E4ACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="DNdhLaiJYJ2ZbD09elSFCyIbsfmsCvuMR7TLpKKqcWr+WHl4whasq0ZZ0A0eyWjFnXr15kGsuJqYxaWBtC5Tlw==" workbookSaltValue="6xngd8mX30SibXiPrW6QDg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19395" windowHeight="10995" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="840">
   <si>
     <t>REGION:</t>
   </si>
@@ -156,9 +156,6 @@
     <t>South Africa</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -684,9 +678,6 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
     <t>WXGcnQWJ0Qd</t>
   </si>
   <si>
@@ -1200,9 +1191,6 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>juBxu3AprlM</t>
   </si>
   <si>
@@ -1542,9 +1530,6 @@
     <t>TJK</t>
   </si>
   <si>
-    <t>The former Yugoslav republic of Macedonia</t>
-  </si>
-  <si>
     <t>cfBaKMnsXd1</t>
   </si>
   <si>
@@ -1569,9 +1554,6 @@
     <t>UKR</t>
   </si>
   <si>
-    <t>United Kingdom of Great Britain and Northern Ireland</t>
-  </si>
-  <si>
     <t>Gnz4lqrVEMf</t>
   </si>
   <si>
@@ -1650,18 +1632,12 @@
     <t>CYM</t>
   </si>
   <si>
-    <t>China, Hong Kong Special Administrative Region</t>
-  </si>
-  <si>
     <t>myv7amOYTHn</t>
   </si>
   <si>
     <t>HKG</t>
   </si>
   <si>
-    <t>China, Macao Special Administrative Region</t>
-  </si>
-  <si>
     <t>y582ESg0Vjo</t>
   </si>
   <si>
@@ -1677,9 +1653,6 @@
     <t>XX1</t>
   </si>
   <si>
-    <t>Curacao</t>
-  </si>
-  <si>
     <t>QSpLidCdqMU</t>
   </si>
   <si>
@@ -1866,9 +1839,6 @@
     <t>MNP</t>
   </si>
   <si>
-    <t>Pitcairn Island</t>
-  </si>
-  <si>
     <t>fHaKXfcKthe</t>
   </si>
   <si>
@@ -1893,9 +1863,6 @@
     <t>XOD</t>
   </si>
   <si>
-    <t>Rï¿½union</t>
-  </si>
-  <si>
     <t>VwqhqUCaMgk</t>
   </si>
   <si>
@@ -2019,18 +1986,12 @@
     <t>XX9</t>
   </si>
   <si>
-    <t>Virgin Islands (USA)</t>
-  </si>
-  <si>
     <t>M9HrCkIwaKy</t>
   </si>
   <si>
     <t>VIR</t>
   </si>
   <si>
-    <t>Wallis and Futuna Islands</t>
-  </si>
-  <si>
     <t>eVp1pvRfPKS</t>
   </si>
   <si>
@@ -2053,9 +2014,6 @@
   </si>
   <si>
     <t>X13</t>
-  </si>
-  <si>
-    <t>nIMkfln6ItD</t>
   </si>
   <si>
     <t>BGD</t>
@@ -2386,6 +2344,219 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>dNLjKwsVjod</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>sg5v6c9tCZ3</t>
+  </si>
+  <si>
+    <t>BVT</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>PFAtPR87fHs</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>hmZE3mVAZFf</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>China, Hong Kong SAR</t>
+  </si>
+  <si>
+    <t>China, Macao SAR</t>
+  </si>
+  <si>
+    <t>China, Province of Taiwan</t>
+  </si>
+  <si>
+    <t>lGN2n7pZ6Ua</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>XjHXb0aFH5w</t>
+  </si>
+  <si>
+    <t>CXR</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>AFIorEPU00q</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>BLpPqpMtgQY</t>
+  </si>
+  <si>
+    <t>ATF</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>NUkOvK4bnj2</t>
+  </si>
+  <si>
+    <t>GGY</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>apVWLKfARpb</t>
+  </si>
+  <si>
+    <t>HMD</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>jZOt27rWre8</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>ehNfKt5LpG9</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>XJscL6IuHpd</t>
+  </si>
+  <si>
+    <t>JEY</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>GPyOOoIby8R</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>tSBEjAHKj9V</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>z5ouOuycTPO</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>TWyMjVaaxmT</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>US Virgin Islands</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Irela</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>KOUhvjWIy6V</t>
+  </si>
+  <si>
+    <t>UMI</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank and Gaza Strip</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>PvrMV4NjbtR</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>Adzexk8xbzD</t>
+  </si>
+  <si>
+    <t>ALA</t>
   </si>
 </sst>
 </file>
@@ -2545,7 +2716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2682,6 +2853,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -9017,7 +9191,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB247"/>
+  <dimension ref="A1:CB266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -9040,16 +9214,22 @@
     <col min="19" max="19" width="11.5703125" style="5" customWidth="1"/>
     <col min="20" max="20" width="16.28515625" style="5" customWidth="1"/>
     <col min="21" max="21" width="12" style="5" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" style="5" customWidth="1"/>
-    <col min="24" max="34" width="9.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="35" max="42" width="9.140625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="17" style="5" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="47.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="29" max="32" width="9.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="47.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="34" max="36" width="9.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="37" max="42" width="9.140625" style="5" customWidth="1"/>
     <col min="43" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -9073,26 +9253,26 @@
       <c r="V1" s="33"/>
       <c r="W1" s="33"/>
       <c r="X1" s="7" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -9122,16 +9302,16 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="5" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>192</v>
+        <v>358</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>193</v>
+        <v>359</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>194</v>
+        <v>360</v>
       </c>
       <c r="AE2" s="5">
         <f t="shared" ref="AE2:AE64" si="0">--ISNUMBER(IFERROR(SEARCH($X$1,AA2,1),""))</f>
@@ -9143,7 +9323,7 @@
       </c>
       <c r="AG2" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF2),$AF$2:$AF$247,0)),"")</f>
-        <v>Algeria</v>
+        <v>Afghanistan</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9173,19 +9353,19 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="5" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>195</v>
+        <v>404</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>196</v>
+        <v>405</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>194</v>
+        <v>406</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AE3:AE66" si="1">--ISNUMBER(IFERROR(SEARCH($X$1,AA3,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF3" s="5">
@@ -9194,7 +9374,7 @@
       </c>
       <c r="AG3" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF3),$AF$2:$AF$247,0)),"")</f>
-        <v>Angola</v>
+        <v>Albania</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9213,22 +9393,22 @@
       </c>
       <c r="M4" s="30"/>
       <c r="X4" s="5" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="5" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AD4" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF4" s="5">
@@ -9237,7 +9417,7 @@
       </c>
       <c r="AG4" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF4),$AF$2:$AF$247,0)),"")</f>
-        <v>Benin</v>
+        <v>Algeria</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9261,22 +9441,22 @@
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
       <c r="X5" s="5" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>9</v>
+        <v>511</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>198</v>
+        <v>512</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>199</v>
+        <v>513</v>
       </c>
       <c r="AD5" s="5" t="s">
-        <v>194</v>
+        <v>685</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF5" s="5">
@@ -9285,7 +9465,7 @@
       </c>
       <c r="AG5" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF5),$AF$2:$AF$247,0)),"")</f>
-        <v>Botswana</v>
+        <v>American Samoa</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -9293,25 +9473,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
@@ -9322,22 +9502,22 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="X6" s="5" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>200</v>
+        <v>407</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>201</v>
+        <v>408</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>194</v>
+        <v>406</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" ref="AE6:AE13" si="1">--ISNUMBER(IFERROR(SEARCH($X$1,AA6,1),""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF6" s="5">
@@ -9346,7 +9526,7 @@
       </c>
       <c r="AG6" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF6),$AF$2:$AF$247,0)),"")</f>
-        <v>Burundi</v>
+        <v>Andorra</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9382,16 +9562,16 @@
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="AA7" s="5" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AE7" s="5">
         <f t="shared" si="1"/>
@@ -9403,15 +9583,15 @@
       </c>
       <c r="AG7" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF7),$AF$2:$AF$247,0)),"")</f>
-        <v>Cabo Verde</v>
+        <v>Angola</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="20">
@@ -9438,17 +9618,17 @@
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
-      <c r="AA8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>194</v>
+      <c r="AA8" s="49" t="s">
+        <v>515</v>
+      </c>
+      <c r="AB8" s="49" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC8" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="AD8" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE8" s="5">
         <f t="shared" si="1"/>
@@ -9460,15 +9640,15 @@
       </c>
       <c r="AG8" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF8),$AF$2:$AF$247,0)),"")</f>
-        <v>Cameroon</v>
+        <v>Anguilla</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="20">
@@ -9495,17 +9675,17 @@
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
-      <c r="AA9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>194</v>
+      <c r="AA9" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC9" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD9" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE9" s="5">
         <f t="shared" si="1"/>
@@ -9517,7 +9697,7 @@
       </c>
       <c r="AG9" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF9),$AF$2:$AF$247,0)),"")</f>
-        <v>Central African Republic</v>
+        <v>Antigua and Barbuda</v>
       </c>
       <c r="AH9" s="9"/>
     </row>
@@ -9526,7 +9706,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="20">
@@ -9553,17 +9733,17 @@
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
-      <c r="AA10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD10" s="5" t="s">
-        <v>194</v>
+      <c r="AA10" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB10" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC10" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD10" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE10" s="5">
         <f t="shared" si="1"/>
@@ -9575,7 +9755,7 @@
       </c>
       <c r="AG10" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF10),$AF$2:$AF$247,0)),"")</f>
-        <v>Chad</v>
+        <v>Argentina</v>
       </c>
       <c r="AH10" s="9"/>
     </row>
@@ -9584,7 +9764,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="20">
@@ -9619,17 +9799,17 @@
       <c r="W11" s="27"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="AA11" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>194</v>
+      <c r="AA11" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB11" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC11" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD11" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE11" s="5">
         <f t="shared" si="1"/>
@@ -9641,7 +9821,7 @@
       </c>
       <c r="AG11" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF11),$AF$2:$AF$247,0)),"")</f>
-        <v>Comoros</v>
+        <v>Armenia</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9649,7 +9829,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="20">
@@ -9684,17 +9864,17 @@
       <c r="W12" s="27"/>
       <c r="X12" s="12"/>
       <c r="Y12" s="12"/>
-      <c r="AA12" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AC12" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD12" s="5" t="s">
-        <v>194</v>
+      <c r="AA12" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB12" s="49" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC12" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="AD12" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE12" s="5">
         <f t="shared" si="1"/>
@@ -9706,7 +9886,7 @@
       </c>
       <c r="AG12" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF12),$AF$2:$AF$247,0)),"")</f>
-        <v>Congo</v>
+        <v>Aruba</v>
       </c>
       <c r="AH12" s="9"/>
     </row>
@@ -9715,7 +9895,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="20">
@@ -9750,17 +9930,17 @@
       <c r="W13" s="27"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="12"/>
-      <c r="AA13" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC13" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD13" s="5" t="s">
-        <v>194</v>
+      <c r="AA13" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB13" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC13" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD13" s="49" t="s">
+        <v>685</v>
       </c>
       <c r="AE13" s="5">
         <f t="shared" si="1"/>
@@ -9772,7 +9952,7 @@
       </c>
       <c r="AG13" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF13),$AF$2:$AF$247,0)),"")</f>
-        <v>Cote d'Ivoire</v>
+        <v>Australia</v>
       </c>
       <c r="AH13" s="9"/>
     </row>
@@ -9801,20 +9981,20 @@
       <c r="W14" s="27"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
-      <c r="AA14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD14" s="5" t="s">
-        <v>194</v>
+      <c r="AA14" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB14" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC14" s="49" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD14" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF14" s="5">
@@ -9823,7 +10003,7 @@
       </c>
       <c r="AG14" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF14),$AF$2:$AF$247,0)),"")</f>
-        <v>Democratic Republic of the Congo</v>
+        <v>Austria</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9851,20 +10031,20 @@
       <c r="W15" s="27"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
-      <c r="AA15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD15" s="5" t="s">
-        <v>194</v>
+      <c r="AA15" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB15" s="49" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC15" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD15" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF15" s="5">
@@ -9873,13 +10053,13 @@
       </c>
       <c r="AG15" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF15),$AF$2:$AF$247,0)),"")</f>
-        <v>Equatorial Guinea</v>
+        <v>Azerbaijan</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -9903,20 +10083,20 @@
       <c r="W16" s="27"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
-      <c r="AA16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>194</v>
+      <c r="AA16" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB16" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC16" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD16" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF16" s="5">
@@ -9925,7 +10105,7 @@
       </c>
       <c r="AG16" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF16),$AF$2:$AF$247,0)),"")</f>
-        <v>Eritrea</v>
+        <v>Bahamas</v>
       </c>
     </row>
     <row r="17" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9953,20 +10133,20 @@
       <c r="W17" s="27"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="AA17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>194</v>
+      <c r="AA17" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB17" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC17" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD17" s="49" t="s">
+        <v>360</v>
       </c>
       <c r="AE17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF17" s="5">
@@ -9975,7 +10155,7 @@
       </c>
       <c r="AG17" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF17),$AF$2:$AF$247,0)),"")</f>
-        <v>Ethiopia</v>
+        <v>Bahrain</v>
       </c>
     </row>
     <row r="18" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10003,20 +10183,20 @@
       <c r="W18" s="27"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
-      <c r="AA18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD18" s="5" t="s">
-        <v>194</v>
+      <c r="AA18" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB18" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC18" s="49" t="s">
+        <v>661</v>
+      </c>
+      <c r="AD18" s="49" t="s">
+        <v>662</v>
       </c>
       <c r="AE18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF18" s="5">
@@ -10025,7 +10205,7 @@
       </c>
       <c r="AG18" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF18),$AF$2:$AF$247,0)),"")</f>
-        <v>Gabon</v>
+        <v>Bangladesh</v>
       </c>
     </row>
     <row r="19" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10053,20 +10233,20 @@
       <c r="W19" s="27"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12"/>
-      <c r="AA19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>194</v>
+      <c r="AA19" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB19" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC19" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD19" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF19" s="5">
@@ -10075,7 +10255,7 @@
       </c>
       <c r="AG19" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF19),$AF$2:$AF$247,0)),"")</f>
-        <v>Gambia</v>
+        <v>Barbados</v>
       </c>
     </row>
     <row r="20" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10103,20 +10283,20 @@
       <c r="W20" s="27"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="AA20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>194</v>
+      <c r="AA20" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB20" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC20" s="49" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD20" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF20" s="5">
@@ -10125,7 +10305,7 @@
       </c>
       <c r="AG20" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF20),$AF$2:$AF$247,0)),"")</f>
-        <v>Ghana</v>
+        <v>Belarus</v>
       </c>
     </row>
     <row r="21" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10153,20 +10333,20 @@
       <c r="W21" s="27"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
-      <c r="AA21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>194</v>
+      <c r="AA21" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB21" s="49" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC21" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="AD21" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF21" s="5">
@@ -10175,7 +10355,7 @@
       </c>
       <c r="AG21" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF21),$AF$2:$AF$247,0)),"")</f>
-        <v>Guinea</v>
+        <v>Belgium</v>
       </c>
     </row>
     <row r="22" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10203,20 +10383,20 @@
       <c r="W22" s="27"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-      <c r="AA22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>194</v>
+      <c r="AA22" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB22" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC22" s="49" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD22" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF22" s="5">
@@ -10225,7 +10405,7 @@
       </c>
       <c r="AG22" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF22),$AF$2:$AF$247,0)),"")</f>
-        <v>Guinea-Bissau</v>
+        <v>Belize</v>
       </c>
     </row>
     <row r="23" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10253,20 +10433,20 @@
       <c r="W23" s="27"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
-      <c r="AA23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC23" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="AD23" s="5" t="s">
-        <v>194</v>
+      <c r="AA23" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC23" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD23" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF23" s="5">
@@ -10275,7 +10455,7 @@
       </c>
       <c r="AG23" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF23),$AF$2:$AF$247,0)),"")</f>
-        <v>Kenya</v>
+        <v>Benin</v>
       </c>
     </row>
     <row r="24" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10303,20 +10483,20 @@
       <c r="W24" s="27"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="AA24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC24" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>194</v>
+      <c r="AA24" s="49" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB24" s="49" t="s">
+        <v>522</v>
+      </c>
+      <c r="AC24" s="49" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD24" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF24" s="5">
@@ -10325,7 +10505,7 @@
       </c>
       <c r="AG24" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF24),$AF$2:$AF$247,0)),"")</f>
-        <v>Lesotho</v>
+        <v>Bermuda</v>
       </c>
     </row>
     <row r="25" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10353,20 +10533,20 @@
       <c r="W25" s="27"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12"/>
-      <c r="AA25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AD25" s="5" t="s">
-        <v>194</v>
+      <c r="AA25" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB25" s="49" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC25" s="49" t="s">
+        <v>664</v>
+      </c>
+      <c r="AD25" s="49" t="s">
+        <v>662</v>
       </c>
       <c r="AE25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF25" s="5">
@@ -10375,7 +10555,7 @@
       </c>
       <c r="AG25" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF25),$AF$2:$AF$247,0)),"")</f>
-        <v>Liberia</v>
+        <v>Bhutan</v>
       </c>
     </row>
     <row r="26" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10403,20 +10583,20 @@
       <c r="W26" s="27"/>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
-      <c r="AA26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC26" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD26" s="5" t="s">
-        <v>194</v>
+      <c r="AA26" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB26" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC26" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD26" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF26" s="5">
@@ -10425,7 +10605,7 @@
       </c>
       <c r="AG26" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF26),$AF$2:$AF$247,0)),"")</f>
-        <v>Madagascar</v>
+        <v>Bolivia (Plurinational State of)</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10453,20 +10633,20 @@
       <c r="W27" s="27"/>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
-      <c r="AA27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD27" s="5" t="s">
-        <v>194</v>
+      <c r="AA27" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB27" s="49" t="s">
+        <v>525</v>
+      </c>
+      <c r="AC27" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD27" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF27" s="5">
@@ -10475,7 +10655,7 @@
       </c>
       <c r="AG27" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF27),$AF$2:$AF$247,0)),"")</f>
-        <v>Malawi</v>
+        <v>Bonaire, Saint Eustatius and Saba</v>
       </c>
     </row>
     <row r="28" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10503,20 +10683,20 @@
       <c r="W28" s="27"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="AA28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC28" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD28" s="5" t="s">
-        <v>194</v>
+      <c r="AA28" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB28" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC28" s="49" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD28" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF28" s="5">
@@ -10525,7 +10705,7 @@
       </c>
       <c r="AG28" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF28),$AF$2:$AF$247,0)),"")</f>
-        <v>Mali</v>
+        <v>Bosnia and Herzegovina</v>
       </c>
     </row>
     <row r="29" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10553,20 +10733,20 @@
       <c r="W29" s="27"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="AA29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB29" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC29" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD29" s="5" t="s">
-        <v>194</v>
+      <c r="AA29" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB29" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC29" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD29" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF29" s="5">
@@ -10575,7 +10755,7 @@
       </c>
       <c r="AG29" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF29),$AF$2:$AF$247,0)),"")</f>
-        <v>Mauritania</v>
+        <v>Botswana</v>
       </c>
     </row>
     <row r="30" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10603,20 +10783,20 @@
       <c r="W30" s="27"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12"/>
-      <c r="AA30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC30" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD30" s="5" t="s">
-        <v>194</v>
+      <c r="AA30" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB30" s="49" t="s">
+        <v>771</v>
+      </c>
+      <c r="AC30" s="49" t="s">
+        <v>772</v>
+      </c>
+      <c r="AD30" s="49" t="s">
+        <v>514</v>
       </c>
       <c r="AE30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF30" s="5">
@@ -10625,7 +10805,7 @@
       </c>
       <c r="AG30" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF30),$AF$2:$AF$247,0)),"")</f>
-        <v>Mauritius</v>
+        <v>Bouvet Island</v>
       </c>
     </row>
     <row r="31" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10653,20 +10833,20 @@
       <c r="W31" s="27"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="AA31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB31" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD31" s="5" t="s">
-        <v>194</v>
+      <c r="AA31" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC31" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD31" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF31" s="5">
@@ -10675,7 +10855,7 @@
       </c>
       <c r="AG31" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF31),$AF$2:$AF$247,0)),"")</f>
-        <v>Mozambique</v>
+        <v>Brazil</v>
       </c>
     </row>
     <row r="32" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10703,20 +10883,20 @@
       <c r="W32" s="27"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
-      <c r="AA32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB32" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC32" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD32" s="5" t="s">
-        <v>194</v>
+      <c r="AA32" s="49" t="s">
+        <v>773</v>
+      </c>
+      <c r="AB32" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="AC32" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="AD32" s="49" t="s">
+        <v>514</v>
       </c>
       <c r="AE32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF32" s="5">
@@ -10725,7 +10905,7 @@
       </c>
       <c r="AG32" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF32),$AF$2:$AF$247,0)),"")</f>
-        <v>Namibia</v>
+        <v>British Indian Ocean Territory</v>
       </c>
     </row>
     <row r="33" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10753,20 +10933,20 @@
       <c r="W33" s="27"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
-      <c r="AA33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB33" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC33" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD33" s="5" t="s">
-        <v>194</v>
+      <c r="AA33" s="49" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB33" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="AC33" s="49" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD33" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF33" s="5">
@@ -10775,7 +10955,7 @@
       </c>
       <c r="AG33" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF33),$AF$2:$AF$247,0)),"")</f>
-        <v>Niger</v>
+        <v>British Virgin Islands</v>
       </c>
     </row>
     <row r="34" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10803,20 +10983,20 @@
       <c r="W34" s="27"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
-      <c r="AA34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB34" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="AC34" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD34" s="5" t="s">
-        <v>194</v>
+      <c r="AA34" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB34" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="AC34" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="AD34" s="49" t="s">
+        <v>685</v>
       </c>
       <c r="AE34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF34" s="5">
@@ -10825,7 +11005,7 @@
       </c>
       <c r="AG34" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF34),$AF$2:$AF$247,0)),"")</f>
-        <v>Nigeria</v>
+        <v>Brunei Darussalam</v>
       </c>
     </row>
     <row r="35" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10853,20 +11033,20 @@
       <c r="W35" s="27"/>
       <c r="X35" s="12"/>
       <c r="Y35" s="12"/>
-      <c r="AA35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="AC35" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="AD35" s="5" t="s">
-        <v>194</v>
+      <c r="AA35" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB35" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC35" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD35" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF35" s="5">
@@ -10875,7 +11055,7 @@
       </c>
       <c r="AG35" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF35),$AF$2:$AF$247,0)),"")</f>
-        <v>Rwanda</v>
+        <v>Bulgaria</v>
       </c>
     </row>
     <row r="36" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10894,20 +11074,20 @@
       <c r="W36" s="27"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
-      <c r="AA36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC36" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>194</v>
+      <c r="AA36" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB36" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="AC36" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD36" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF36" s="5">
@@ -10916,7 +11096,7 @@
       </c>
       <c r="AG36" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF36),$AF$2:$AF$247,0)),"")</f>
-        <v>Sao Tome and Principe</v>
+        <v>Burkina Faso</v>
       </c>
     </row>
     <row r="37" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10935,20 +11115,20 @@
       <c r="W37" s="27"/>
       <c r="X37" s="12"/>
       <c r="Y37" s="12"/>
-      <c r="AA37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB37" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD37" s="5" t="s">
-        <v>194</v>
+      <c r="AA37" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB37" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC37" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD37" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF37" s="5">
@@ -10957,7 +11137,7 @@
       </c>
       <c r="AG37" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF37),$AF$2:$AF$247,0)),"")</f>
-        <v>Senegal</v>
+        <v>Burundi</v>
       </c>
     </row>
     <row r="38" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10976,20 +11156,20 @@
       <c r="W38" s="27"/>
       <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
-      <c r="AA38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB38" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC38" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD38" s="5" t="s">
-        <v>194</v>
+      <c r="AA38" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB38" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC38" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD38" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF38" s="5">
@@ -10998,7 +11178,7 @@
       </c>
       <c r="AG38" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF38),$AF$2:$AF$247,0)),"")</f>
-        <v>Seychelles</v>
+        <v>Cabo Verde</v>
       </c>
     </row>
     <row r="39" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11017,20 +11197,20 @@
       <c r="W39" s="27"/>
       <c r="X39" s="12"/>
       <c r="Y39" s="12"/>
-      <c r="AA39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="AC39" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AD39" s="5" t="s">
-        <v>194</v>
+      <c r="AA39" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB39" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="AC39" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="AD39" s="49" t="s">
+        <v>685</v>
       </c>
       <c r="AE39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF39" s="5">
@@ -11039,7 +11219,7 @@
       </c>
       <c r="AG39" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF39),$AF$2:$AF$247,0)),"")</f>
-        <v>Sierra Leone</v>
+        <v>Cambodia</v>
       </c>
     </row>
     <row r="40" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11058,20 +11238,20 @@
       <c r="W40" s="27"/>
       <c r="X40" s="12"/>
       <c r="Y40" s="12"/>
-      <c r="AA40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB40" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AC40" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD40" s="5" t="s">
-        <v>194</v>
+      <c r="AA40" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB40" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC40" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD40" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF40" s="5">
@@ -11080,7 +11260,7 @@
       </c>
       <c r="AG40" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF40),$AF$2:$AF$247,0)),"")</f>
-        <v>South Africa</v>
+        <v>Cameroon</v>
       </c>
     </row>
     <row r="41" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11099,20 +11279,20 @@
       <c r="W41" s="27"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
-      <c r="AA41" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AB41" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC41" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="AD41" s="5" t="s">
-        <v>194</v>
+      <c r="AA41" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB41" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC41" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD41" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF41" s="5">
@@ -11121,7 +11301,7 @@
       </c>
       <c r="AG41" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF41),$AF$2:$AF$247,0)),"")</f>
-        <v>South Sudan</v>
+        <v>Canada</v>
       </c>
     </row>
     <row r="42" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11140,20 +11320,20 @@
       <c r="W42" s="27"/>
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
-      <c r="AA42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB42" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC42" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD42" s="5" t="s">
-        <v>194</v>
+      <c r="AA42" s="49" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB42" s="49" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC42" s="49" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD42" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF42" s="5">
@@ -11162,7 +11342,7 @@
       </c>
       <c r="AG42" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF42),$AF$2:$AF$247,0)),"")</f>
-        <v>Swaziland</v>
+        <v>Cayman Islands</v>
       </c>
     </row>
     <row r="43" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11181,20 +11361,20 @@
       <c r="W43" s="27"/>
       <c r="X43" s="12"/>
       <c r="Y43" s="12"/>
-      <c r="AA43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB43" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC43" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD43" s="5" t="s">
-        <v>194</v>
+      <c r="AA43" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB43" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC43" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD43" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF43" s="5">
@@ -11203,7 +11383,7 @@
       </c>
       <c r="AG43" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF43),$AF$2:$AF$247,0)),"")</f>
-        <v>Togo</v>
+        <v>Central African Republic</v>
       </c>
     </row>
     <row r="44" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11222,20 +11402,20 @@
       <c r="W44" s="27"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="12"/>
-      <c r="AA44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB44" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC44" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="AD44" s="5" t="s">
-        <v>194</v>
+      <c r="AA44" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB44" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC44" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD44" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF44" s="5">
@@ -11244,7 +11424,7 @@
       </c>
       <c r="AG44" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF44),$AF$2:$AF$247,0)),"")</f>
-        <v>Uganda</v>
+        <v>Chad</v>
       </c>
     </row>
     <row r="45" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11263,20 +11443,20 @@
       <c r="W45" s="27"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
-      <c r="AA45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB45" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC45" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD45" s="5" t="s">
-        <v>194</v>
+      <c r="AA45" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB45" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC45" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD45" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF45" s="5">
@@ -11285,7 +11465,7 @@
       </c>
       <c r="AG45" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF45),$AF$2:$AF$247,0)),"")</f>
-        <v>United Republic of Tanzania</v>
+        <v>Chile</v>
       </c>
     </row>
     <row r="46" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11304,20 +11484,20 @@
       <c r="W46" s="27"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="12"/>
-      <c r="AA46" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB46" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC46" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD46" s="5" t="s">
-        <v>194</v>
+      <c r="AA46" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB46" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="AC46" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="AD46" s="49" t="s">
+        <v>685</v>
       </c>
       <c r="AE46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF46" s="5">
@@ -11326,7 +11506,7 @@
       </c>
       <c r="AG46" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF46),$AF$2:$AF$247,0)),"")</f>
-        <v>Zambia</v>
+        <v>China</v>
       </c>
     </row>
     <row r="47" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11345,20 +11525,20 @@
       <c r="W47" s="27"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
-      <c r="AA47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB47" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC47" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD47" s="5" t="s">
-        <v>194</v>
+      <c r="AA47" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB47" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC47" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD47" s="49" t="s">
+        <v>685</v>
       </c>
       <c r="AE47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF47" s="5">
@@ -11367,7 +11547,7 @@
       </c>
       <c r="AG47" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF47),$AF$2:$AF$247,0)),"")</f>
-        <v>Zimbabwe</v>
+        <v>China, Hong Kong SAR</v>
       </c>
     </row>
     <row r="48" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11386,20 +11566,20 @@
       <c r="W48" s="27"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
-      <c r="AA48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB48" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC48" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD48" s="5" t="s">
-        <v>291</v>
+      <c r="AA48" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB48" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="AC48" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD48" s="49" t="s">
+        <v>685</v>
       </c>
       <c r="AE48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF48" s="5">
@@ -11408,7 +11588,7 @@
       </c>
       <c r="AG48" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF48),$AF$2:$AF$247,0)),"")</f>
-        <v>Antigua and Barbuda</v>
+        <v>China, Macao SAR</v>
       </c>
     </row>
     <row r="49" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11427,20 +11607,20 @@
       <c r="W49" s="27"/>
       <c r="X49" s="12"/>
       <c r="Y49" s="12"/>
-      <c r="AA49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB49" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC49" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD49" s="5" t="s">
-        <v>291</v>
+      <c r="AA49" s="49" t="s">
+        <v>781</v>
+      </c>
+      <c r="AB49" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="AC49" s="49" t="s">
+        <v>783</v>
+      </c>
+      <c r="AD49" s="49" t="s">
+        <v>514</v>
       </c>
       <c r="AE49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF49" s="5">
@@ -11449,7 +11629,7 @@
       </c>
       <c r="AG49" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF49),$AF$2:$AF$247,0)),"")</f>
-        <v>Argentina</v>
+        <v>China, Province of Taiwan</v>
       </c>
     </row>
     <row r="50" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11468,20 +11648,20 @@
       <c r="W50" s="27"/>
       <c r="X50" s="12"/>
       <c r="Y50" s="12"/>
-      <c r="AA50" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="AB50" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC50" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD50" s="5" t="s">
-        <v>291</v>
+      <c r="AA50" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB50" s="49" t="s">
+        <v>538</v>
+      </c>
+      <c r="AC50" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="AD50" s="49" t="s">
+        <v>514</v>
       </c>
       <c r="AE50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF50" s="5">
@@ -11490,7 +11670,7 @@
       </c>
       <c r="AG50" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF50),$AF$2:$AF$247,0)),"")</f>
-        <v>Bahamas</v>
+        <v>China: Province of Taiwan only</v>
       </c>
     </row>
     <row r="51" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11509,20 +11689,20 @@
       <c r="W51" s="27"/>
       <c r="X51" s="12"/>
       <c r="Y51" s="12"/>
-      <c r="AA51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB51" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AC51" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD51" s="5" t="s">
-        <v>291</v>
+      <c r="AA51" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB51" s="49" t="s">
+        <v>785</v>
+      </c>
+      <c r="AC51" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD51" s="49" t="s">
+        <v>514</v>
       </c>
       <c r="AE51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF51" s="5">
@@ -11531,7 +11711,7 @@
       </c>
       <c r="AG51" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF51),$AF$2:$AF$247,0)),"")</f>
-        <v>Barbados</v>
+        <v>Christmas Island</v>
       </c>
     </row>
     <row r="52" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11550,20 +11730,20 @@
       <c r="W52" s="27"/>
       <c r="X52" s="12"/>
       <c r="Y52" s="12"/>
-      <c r="AA52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB52" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AC52" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD52" s="5" t="s">
-        <v>291</v>
+      <c r="AA52" s="49" t="s">
+        <v>787</v>
+      </c>
+      <c r="AB52" s="49" t="s">
+        <v>788</v>
+      </c>
+      <c r="AC52" s="49" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD52" s="49" t="s">
+        <v>514</v>
       </c>
       <c r="AE52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF52" s="5">
@@ -11572,7 +11752,7 @@
       </c>
       <c r="AG52" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF52),$AF$2:$AF$247,0)),"")</f>
-        <v>Belize</v>
+        <v>Cocos (Keeling) Islands</v>
       </c>
     </row>
     <row r="53" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11591,20 +11771,20 @@
       <c r="W53" s="27"/>
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
-      <c r="AA53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB53" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC53" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD53" s="5" t="s">
-        <v>291</v>
+      <c r="AA53" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB53" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC53" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD53" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF53" s="5">
@@ -11613,7 +11793,7 @@
       </c>
       <c r="AG53" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF53),$AF$2:$AF$247,0)),"")</f>
-        <v>Bolivia (Plurinational State of)</v>
+        <v>Colombia</v>
       </c>
     </row>
     <row r="54" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11632,20 +11812,20 @@
       <c r="W54" s="27"/>
       <c r="X54" s="12"/>
       <c r="Y54" s="12"/>
-      <c r="AA54" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB54" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC54" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD54" s="5" t="s">
-        <v>291</v>
+      <c r="AA54" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB54" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC54" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD54" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF54" s="5">
@@ -11654,7 +11834,7 @@
       </c>
       <c r="AG54" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF54),$AF$2:$AF$247,0)),"")</f>
-        <v>Brazil</v>
+        <v>Comoros</v>
       </c>
     </row>
     <row r="55" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11673,20 +11853,20 @@
       <c r="W55" s="27"/>
       <c r="X55" s="12"/>
       <c r="Y55" s="12"/>
-      <c r="AA55" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB55" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC55" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD55" s="5" t="s">
-        <v>291</v>
+      <c r="AA55" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB55" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC55" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD55" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF55" s="5">
@@ -11695,7 +11875,7 @@
       </c>
       <c r="AG55" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF55),$AF$2:$AF$247,0)),"")</f>
-        <v>Canada</v>
+        <v>Congo</v>
       </c>
     </row>
     <row r="56" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11714,20 +11894,20 @@
       <c r="W56" s="27"/>
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
-      <c r="AA56" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB56" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="AC56" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD56" s="5" t="s">
-        <v>291</v>
+      <c r="AA56" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB56" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="AC56" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="AD56" s="49" t="s">
+        <v>685</v>
       </c>
       <c r="AE56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF56" s="5">
@@ -11736,7 +11916,7 @@
       </c>
       <c r="AG56" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF56),$AF$2:$AF$247,0)),"")</f>
-        <v>Chile</v>
+        <v>Cook Islands</v>
       </c>
     </row>
     <row r="57" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11755,20 +11935,20 @@
       <c r="W57" s="27"/>
       <c r="X57" s="12"/>
       <c r="Y57" s="12"/>
-      <c r="AA57" s="5" t="s">
+      <c r="AA57" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="AB57" s="5" t="s">
+      <c r="AB57" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC57" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="AC57" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD57" s="5" t="s">
-        <v>291</v>
+      <c r="AD57" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF57" s="5">
@@ -11777,7 +11957,7 @@
       </c>
       <c r="AG57" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF57),$AF$2:$AF$247,0)),"")</f>
-        <v>Colombia</v>
+        <v>Costa Rica</v>
       </c>
     </row>
     <row r="58" spans="1:80" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11807,20 +11987,20 @@
       <c r="X58" s="12"/>
       <c r="Y58" s="12"/>
       <c r="Z58" s="5"/>
-      <c r="AA58" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB58" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="AC58" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD58" s="5" t="s">
-        <v>291</v>
+      <c r="AA58" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB58" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC58" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD58" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF58" s="5">
@@ -11829,7 +12009,7 @@
       </c>
       <c r="AG58" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF58),$AF$2:$AF$247,0)),"")</f>
-        <v>Costa Rica</v>
+        <v>Croatia</v>
       </c>
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
@@ -11895,20 +12075,20 @@
       <c r="W59" s="27"/>
       <c r="X59" s="12"/>
       <c r="Y59" s="12"/>
-      <c r="AA59" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB59" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC59" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD59" s="5" t="s">
-        <v>291</v>
+      <c r="AA59" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB59" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC59" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="AD59" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF59" s="5">
@@ -11936,20 +12116,20 @@
       <c r="W60" s="27"/>
       <c r="X60" s="12"/>
       <c r="Y60" s="12"/>
-      <c r="AA60" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB60" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AC60" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD60" s="5" t="s">
-        <v>291</v>
+      <c r="AA60" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="AB60" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="AC60" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD60" s="49" t="s">
+        <v>288</v>
       </c>
       <c r="AE60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF60" s="5">
@@ -11958,7 +12138,7 @@
       </c>
       <c r="AG60" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF60),$AF$2:$AF$247,0)),"")</f>
-        <v>Dominica</v>
+        <v>Curaçao</v>
       </c>
     </row>
     <row r="61" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11977,20 +12157,20 @@
       <c r="W61" s="27"/>
       <c r="X61" s="12"/>
       <c r="Y61" s="12"/>
-      <c r="AA61" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB61" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="AC61" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="AD61" s="5" t="s">
-        <v>291</v>
+      <c r="AA61" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB61" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC61" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD61" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF61" s="5">
@@ -11999,7 +12179,7 @@
       </c>
       <c r="AG61" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF61),$AF$2:$AF$247,0)),"")</f>
-        <v>Dominican Republic</v>
+        <v>Cyprus</v>
       </c>
     </row>
     <row r="62" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12018,20 +12198,20 @@
       <c r="W62" s="27"/>
       <c r="X62" s="12"/>
       <c r="Y62" s="12"/>
-      <c r="AA62" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB62" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC62" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="AD62" s="5" t="s">
-        <v>291</v>
+      <c r="AA62" s="49" t="s">
+        <v>791</v>
+      </c>
+      <c r="AB62" s="49" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC62" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD62" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE62" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF62" s="5">
@@ -12040,7 +12220,7 @@
       </c>
       <c r="AG62" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF62),$AF$2:$AF$247,0)),"")</f>
-        <v>Ecuador</v>
+        <v>Czechia</v>
       </c>
     </row>
     <row r="63" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12059,20 +12239,20 @@
       <c r="W63" s="27"/>
       <c r="X63" s="12"/>
       <c r="Y63" s="12"/>
-      <c r="AA63" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB63" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="AC63" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD63" s="5" t="s">
-        <v>291</v>
+      <c r="AA63" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB63" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC63" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD63" s="49" t="s">
+        <v>514</v>
       </c>
       <c r="AE63" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF63" s="5">
@@ -12081,7 +12261,7 @@
       </c>
       <c r="AG63" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF63),$AF$2:$AF$247,0)),"")</f>
-        <v>El Salvador</v>
+        <v>Czechoslovakia, Former</v>
       </c>
     </row>
     <row r="64" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12100,20 +12280,20 @@
       <c r="W64" s="27"/>
       <c r="X64" s="12"/>
       <c r="Y64" s="12"/>
-      <c r="AA64" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB64" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC64" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD64" s="5" t="s">
-        <v>291</v>
+      <c r="AA64" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="AB64" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC64" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD64" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF64" s="5">
@@ -12122,7 +12302,7 @@
       </c>
       <c r="AG64" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF64),$AF$2:$AF$247,0)),"")</f>
-        <v>Grenada</v>
+        <v>Côte d'Ivoire</v>
       </c>
     </row>
     <row r="65" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12141,20 +12321,20 @@
       <c r="W65" s="27"/>
       <c r="X65" s="12"/>
       <c r="Y65" s="12"/>
-      <c r="AA65" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB65" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AC65" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD65" s="5" t="s">
-        <v>291</v>
+      <c r="AA65" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB65" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC65" s="49" t="s">
+        <v>666</v>
+      </c>
+      <c r="AD65" s="49" t="s">
+        <v>662</v>
       </c>
       <c r="AE65" s="5">
-        <f t="shared" ref="AE65:AE128" si="5">--ISNUMBER(IFERROR(SEARCH($X$1,AA65,1),""))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF65" s="5">
@@ -12163,7 +12343,7 @@
       </c>
       <c r="AG65" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF65),$AF$2:$AF$247,0)),"")</f>
-        <v>Guatemala</v>
+        <v>Democratic People's Republic of Korea</v>
       </c>
     </row>
     <row r="66" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12182,20 +12362,20 @@
       <c r="W66" s="27"/>
       <c r="X66" s="12"/>
       <c r="Y66" s="12"/>
-      <c r="AA66" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB66" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC66" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD66" s="5" t="s">
-        <v>291</v>
+      <c r="AA66" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB66" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC66" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD66" s="49" t="s">
+        <v>192</v>
       </c>
       <c r="AE66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF66" s="5">
@@ -12204,24 +12384,24 @@
       </c>
       <c r="AG66" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF66),$AF$2:$AF$247,0)),"")</f>
-        <v>Guyana</v>
+        <v>Democratic Republic of the Congo</v>
       </c>
     </row>
     <row r="67" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AA67" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB67" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="AC67" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD67" s="5" t="s">
-        <v>291</v>
+      <c r="AA67" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB67" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC67" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD67" s="49" t="s">
+        <v>406</v>
       </c>
       <c r="AE67" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AE67:AE130" si="5">--ISNUMBER(IFERROR(SEARCH($X$1,AA67,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF67" s="5">
@@ -12230,21 +12410,21 @@
       </c>
       <c r="AG67" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF67),$AF$2:$AF$247,0)),"")</f>
-        <v>Haiti</v>
+        <v>Denmark</v>
       </c>
     </row>
     <row r="68" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA68" s="5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="AB68" s="5" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="AD68" s="5" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="AE68" s="5">
         <f t="shared" si="5"/>
@@ -12256,21 +12436,21 @@
       </c>
       <c r="AG68" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF68),$AF$2:$AF$247,0)),"")</f>
-        <v>Honduras</v>
+        <v>Djibouti</v>
       </c>
     </row>
     <row r="69" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA69" s="5" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AB69" s="5" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="AC69" s="5" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="AD69" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE69" s="5">
         <f t="shared" si="5"/>
@@ -12282,21 +12462,21 @@
       </c>
       <c r="AG69" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF69),$AF$2:$AF$247,0)),"")</f>
-        <v>Jamaica</v>
+        <v>Dominica</v>
       </c>
     </row>
     <row r="70" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA70" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AB70" s="5" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="AC70" s="5" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="AD70" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE70" s="5">
         <f t="shared" si="5"/>
@@ -12308,21 +12488,21 @@
       </c>
       <c r="AG70" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF70),$AF$2:$AF$247,0)),"")</f>
-        <v>Mexico</v>
+        <v>Dominican Republic</v>
       </c>
     </row>
     <row r="71" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA71" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="AD71" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE71" s="5">
         <f t="shared" si="5"/>
@@ -12334,21 +12514,21 @@
       </c>
       <c r="AG71" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF71),$AF$2:$AF$247,0)),"")</f>
-        <v>Nicaragua</v>
+        <v>Ecuador</v>
       </c>
     </row>
     <row r="72" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA72" s="5" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="AB72" s="5" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="AC72" s="5" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="AD72" s="5" t="s">
-        <v>291</v>
+        <v>360</v>
       </c>
       <c r="AE72" s="5">
         <f t="shared" si="5"/>
@@ -12360,21 +12540,21 @@
       </c>
       <c r="AG72" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF72),$AF$2:$AF$247,0)),"")</f>
-        <v>Panama</v>
+        <v>Egypt</v>
       </c>
     </row>
     <row r="73" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA73" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="AB73" s="5" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="AC73" s="5" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="AD73" s="5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE73" s="5">
         <f t="shared" si="5"/>
@@ -12386,21 +12566,21 @@
       </c>
       <c r="AG73" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF73),$AF$2:$AF$247,0)),"")</f>
-        <v>Paraguay</v>
+        <v>El Salvador</v>
       </c>
     </row>
     <row r="74" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA74" s="5" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="AB74" s="5" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="AC74" s="5" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
       <c r="AD74" s="5" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="AE74" s="5">
         <f t="shared" si="5"/>
@@ -12412,21 +12592,21 @@
       </c>
       <c r="AG74" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF74),$AF$2:$AF$247,0)),"")</f>
-        <v>Peru</v>
+        <v>Equatorial Guinea</v>
       </c>
     </row>
     <row r="75" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA75" s="5" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="AB75" s="5" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
       <c r="AC75" s="5" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="AD75" s="5" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="AE75" s="5">
         <f t="shared" si="5"/>
@@ -12438,21 +12618,21 @@
       </c>
       <c r="AG75" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF75),$AF$2:$AF$247,0)),"")</f>
-        <v>Saint Kitts and Nevis</v>
+        <v>Eritrea</v>
       </c>
     </row>
     <row r="76" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA76" s="5" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="AB76" s="5" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
       <c r="AC76" s="5" t="s">
-        <v>348</v>
+        <v>432</v>
       </c>
       <c r="AD76" s="5" t="s">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="AE76" s="5">
         <f t="shared" si="5"/>
@@ -12464,21 +12644,21 @@
       </c>
       <c r="AG76" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF76),$AF$2:$AF$247,0)),"")</f>
-        <v>Saint Lucia</v>
+        <v>Estonia</v>
       </c>
     </row>
     <row r="77" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA77" s="5" t="s">
-        <v>75</v>
+        <v>793</v>
       </c>
       <c r="AB77" s="5" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="AC77" s="5" t="s">
-        <v>350</v>
+        <v>275</v>
       </c>
       <c r="AD77" s="5" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="AE77" s="5">
         <f t="shared" si="5"/>
@@ -12490,21 +12670,21 @@
       </c>
       <c r="AG77" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF77),$AF$2:$AF$247,0)),"")</f>
-        <v>Saint Vincent and the Grenadines</v>
+        <v>Eswatini</v>
       </c>
     </row>
     <row r="78" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA78" s="5" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="AB78" s="5" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="AC78" s="5" t="s">
-        <v>352</v>
+        <v>224</v>
       </c>
       <c r="AD78" s="5" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="AE78" s="5">
         <f t="shared" si="5"/>
@@ -12516,21 +12696,21 @@
       </c>
       <c r="AG78" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF78),$AF$2:$AF$247,0)),"")</f>
-        <v>Suriname</v>
+        <v>Ethiopia</v>
       </c>
     </row>
     <row r="79" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA79" s="5" t="s">
-        <v>77</v>
+        <v>545</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>353</v>
+        <v>546</v>
       </c>
       <c r="AC79" s="5" t="s">
-        <v>354</v>
+        <v>547</v>
       </c>
       <c r="AD79" s="5" t="s">
-        <v>291</v>
+        <v>514</v>
       </c>
       <c r="AE79" s="5">
         <f t="shared" si="5"/>
@@ -12542,21 +12722,21 @@
       </c>
       <c r="AG79" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF79),$AF$2:$AF$247,0)),"")</f>
-        <v>Trinidad and Tobago</v>
+        <v>Falkland Islands (Malvinas)</v>
       </c>
     </row>
     <row r="80" spans="11:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA80" s="5" t="s">
-        <v>78</v>
+        <v>548</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>355</v>
+        <v>549</v>
       </c>
       <c r="AC80" s="5" t="s">
-        <v>356</v>
+        <v>550</v>
       </c>
       <c r="AD80" s="5" t="s">
-        <v>291</v>
+        <v>514</v>
       </c>
       <c r="AE80" s="5">
         <f t="shared" si="5"/>
@@ -12568,21 +12748,21 @@
       </c>
       <c r="AG80" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF80),$AF$2:$AF$247,0)),"")</f>
-        <v>United States of America</v>
+        <v>Faroe Islands</v>
       </c>
     </row>
     <row r="81" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA81" s="5" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AB81" s="5" t="s">
-        <v>357</v>
+        <v>695</v>
       </c>
       <c r="AC81" s="5" t="s">
-        <v>358</v>
+        <v>696</v>
       </c>
       <c r="AD81" s="5" t="s">
-        <v>291</v>
+        <v>685</v>
       </c>
       <c r="AE81" s="5">
         <f t="shared" si="5"/>
@@ -12594,21 +12774,21 @@
       </c>
       <c r="AG81" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF81),$AF$2:$AF$247,0)),"")</f>
-        <v>Uruguay</v>
+        <v>Fiji</v>
       </c>
     </row>
     <row r="82" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA82" s="5" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AB82" s="5" t="s">
-        <v>359</v>
+        <v>433</v>
       </c>
       <c r="AC82" s="5" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="AD82" s="5" t="s">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="AE82" s="5">
         <f t="shared" si="5"/>
@@ -12620,21 +12800,21 @@
       </c>
       <c r="AG82" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF82),$AF$2:$AF$247,0)),"")</f>
-        <v>Venezuela (Bolivarian Republic of)</v>
+        <v>Finland</v>
       </c>
     </row>
     <row r="83" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA83" s="5" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AB83" s="5" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="AC83" s="5" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="AD83" s="5" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="AE83" s="5">
         <f t="shared" si="5"/>
@@ -12646,21 +12826,21 @@
       </c>
       <c r="AG83" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF83),$AF$2:$AF$247,0)),"")</f>
-        <v>Afghanistan</v>
+        <v>France</v>
       </c>
     </row>
     <row r="84" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA84" s="5" t="s">
-        <v>82</v>
+        <v>551</v>
       </c>
       <c r="AB84" s="5" t="s">
-        <v>364</v>
+        <v>552</v>
       </c>
       <c r="AC84" s="5" t="s">
-        <v>365</v>
+        <v>553</v>
       </c>
       <c r="AD84" s="5" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="AE84" s="5">
         <f t="shared" si="5"/>
@@ -12672,21 +12852,21 @@
       </c>
       <c r="AG84" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF84),$AF$2:$AF$247,0)),"")</f>
-        <v>Bahrain</v>
+        <v>French Guiana</v>
       </c>
     </row>
     <row r="85" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA85" s="5" t="s">
-        <v>83</v>
+        <v>554</v>
       </c>
       <c r="AB85" s="5" t="s">
-        <v>366</v>
+        <v>555</v>
       </c>
       <c r="AC85" s="5" t="s">
-        <v>367</v>
+        <v>556</v>
       </c>
       <c r="AD85" s="5" t="s">
-        <v>363</v>
+        <v>685</v>
       </c>
       <c r="AE85" s="5">
         <f t="shared" si="5"/>
@@ -12698,21 +12878,21 @@
       </c>
       <c r="AG85" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF85),$AF$2:$AF$247,0)),"")</f>
-        <v>Djibouti</v>
+        <v>French Polynesia</v>
       </c>
     </row>
     <row r="86" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA86" s="5" t="s">
-        <v>84</v>
+        <v>794</v>
       </c>
       <c r="AB86" s="5" t="s">
-        <v>368</v>
+        <v>795</v>
       </c>
       <c r="AC86" s="5" t="s">
-        <v>369</v>
+        <v>796</v>
       </c>
       <c r="AD86" s="5" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="AE86" s="5">
         <f t="shared" si="5"/>
@@ -12724,21 +12904,21 @@
       </c>
       <c r="AG86" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF86),$AF$2:$AF$247,0)),"")</f>
-        <v>Egypt</v>
+        <v>French Southern Territories</v>
       </c>
     </row>
     <row r="87" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA87" s="5" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AB87" s="5" t="s">
-        <v>370</v>
+        <v>225</v>
       </c>
       <c r="AC87" s="5" t="s">
-        <v>371</v>
+        <v>226</v>
       </c>
       <c r="AD87" s="5" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="AE87" s="5">
         <f t="shared" si="5"/>
@@ -12750,21 +12930,21 @@
       </c>
       <c r="AG87" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF87),$AF$2:$AF$247,0)),"")</f>
-        <v>Iran (Islamic Republic of)</v>
+        <v>Gabon</v>
       </c>
     </row>
     <row r="88" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA88" s="5" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="AB88" s="5" t="s">
-        <v>372</v>
+        <v>227</v>
       </c>
       <c r="AC88" s="5" t="s">
-        <v>373</v>
+        <v>228</v>
       </c>
       <c r="AD88" s="5" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="AE88" s="5">
         <f t="shared" si="5"/>
@@ -12776,21 +12956,21 @@
       </c>
       <c r="AG88" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF88),$AF$2:$AF$247,0)),"")</f>
-        <v>Iraq</v>
+        <v>Gambia</v>
       </c>
     </row>
     <row r="89" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA89" s="5" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="AB89" s="5" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="AC89" s="5" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="AD89" s="5" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="AE89" s="5">
         <f t="shared" si="5"/>
@@ -12802,21 +12982,21 @@
       </c>
       <c r="AG89" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF89),$AF$2:$AF$247,0)),"")</f>
-        <v>Jordan</v>
+        <v>Georgia</v>
       </c>
     </row>
     <row r="90" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA90" s="5" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="AB90" s="5" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="AC90" s="5" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="AD90" s="5" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="AE90" s="5">
         <f t="shared" si="5"/>
@@ -12828,21 +13008,21 @@
       </c>
       <c r="AG90" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF90),$AF$2:$AF$247,0)),"")</f>
-        <v>Kuwait</v>
+        <v>Germany</v>
       </c>
     </row>
     <row r="91" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA91" s="5" t="s">
-        <v>89</v>
+        <v>557</v>
       </c>
       <c r="AB91" s="5" t="s">
-        <v>378</v>
+        <v>558</v>
       </c>
       <c r="AC91" s="5" t="s">
-        <v>379</v>
+        <v>559</v>
       </c>
       <c r="AD91" s="5" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="AE91" s="5">
         <f t="shared" si="5"/>
@@ -12854,21 +13034,21 @@
       </c>
       <c r="AG91" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF91),$AF$2:$AF$247,0)),"")</f>
-        <v>Lebanon</v>
+        <v>Germany, Former Democratic Republic</v>
       </c>
     </row>
     <row r="92" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA92" s="5" t="s">
-        <v>380</v>
+        <v>560</v>
       </c>
       <c r="AB92" s="5" t="s">
-        <v>381</v>
+        <v>561</v>
       </c>
       <c r="AC92" s="5" t="s">
-        <v>382</v>
+        <v>562</v>
       </c>
       <c r="AD92" s="5" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="AE92" s="5">
         <f t="shared" si="5"/>
@@ -12880,21 +13060,21 @@
       </c>
       <c r="AG92" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF92),$AF$2:$AF$247,0)),"")</f>
-        <v>Libya</v>
+        <v>Germany, Former Federal Republic</v>
       </c>
     </row>
     <row r="93" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA93" s="5" t="s">
-        <v>90</v>
+        <v>563</v>
       </c>
       <c r="AB93" s="5" t="s">
-        <v>383</v>
+        <v>564</v>
       </c>
       <c r="AC93" s="5" t="s">
-        <v>384</v>
+        <v>565</v>
       </c>
       <c r="AD93" s="5" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="AE93" s="5">
         <f t="shared" si="5"/>
@@ -12906,21 +13086,21 @@
       </c>
       <c r="AG93" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF93),$AF$2:$AF$247,0)),"")</f>
-        <v>Morocco</v>
+        <v>Germany, West Berlin</v>
       </c>
     </row>
     <row r="94" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA94" s="5" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="AB94" s="5" t="s">
-        <v>385</v>
+        <v>229</v>
       </c>
       <c r="AC94" s="5" t="s">
-        <v>386</v>
+        <v>230</v>
       </c>
       <c r="AD94" s="5" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="AE94" s="5">
         <f t="shared" si="5"/>
@@ -12932,21 +13112,21 @@
       </c>
       <c r="AG94" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF94),$AF$2:$AF$247,0)),"")</f>
-        <v>Oman</v>
+        <v>Ghana</v>
       </c>
     </row>
     <row r="95" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA95" s="5" t="s">
-        <v>92</v>
+        <v>566</v>
       </c>
       <c r="AB95" s="5" t="s">
-        <v>387</v>
+        <v>567</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>388</v>
+        <v>568</v>
       </c>
       <c r="AD95" s="5" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="AE95" s="5">
         <f t="shared" si="5"/>
@@ -12958,21 +13138,21 @@
       </c>
       <c r="AG95" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF95),$AF$2:$AF$247,0)),"")</f>
-        <v>Pakistan</v>
+        <v>Gibraltar</v>
       </c>
     </row>
     <row r="96" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA96" s="5" t="s">
-        <v>389</v>
+        <v>117</v>
       </c>
       <c r="AB96" s="5" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="AC96" s="5" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="AD96" s="5" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="AE96" s="5">
         <f t="shared" si="5"/>
@@ -12984,21 +13164,21 @@
       </c>
       <c r="AG96" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF96),$AF$2:$AF$247,0)),"")</f>
-        <v>Palestine</v>
+        <v>Greece</v>
       </c>
     </row>
     <row r="97" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA97" s="5" t="s">
-        <v>93</v>
+        <v>569</v>
       </c>
       <c r="AB97" s="5" t="s">
-        <v>392</v>
+        <v>570</v>
       </c>
       <c r="AC97" s="5" t="s">
-        <v>393</v>
+        <v>571</v>
       </c>
       <c r="AD97" s="5" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="AE97" s="5">
         <f t="shared" si="5"/>
@@ -13010,21 +13190,21 @@
       </c>
       <c r="AG97" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF97),$AF$2:$AF$247,0)),"")</f>
-        <v>Qatar</v>
+        <v>Greenland</v>
       </c>
     </row>
     <row r="98" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA98" s="5" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="AB98" s="5" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="AC98" s="5" t="s">
-        <v>395</v>
+        <v>321</v>
       </c>
       <c r="AD98" s="5" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="AE98" s="5">
         <f t="shared" si="5"/>
@@ -13036,21 +13216,21 @@
       </c>
       <c r="AG98" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF98),$AF$2:$AF$247,0)),"")</f>
-        <v>Saudi Arabia</v>
+        <v>Grenada</v>
       </c>
     </row>
     <row r="99" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA99" s="5" t="s">
-        <v>95</v>
+        <v>572</v>
       </c>
       <c r="AB99" s="5" t="s">
-        <v>396</v>
+        <v>573</v>
       </c>
       <c r="AC99" s="5" t="s">
-        <v>397</v>
+        <v>574</v>
       </c>
       <c r="AD99" s="5" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="AE99" s="5">
         <f t="shared" si="5"/>
@@ -13062,21 +13242,21 @@
       </c>
       <c r="AG99" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF99),$AF$2:$AF$247,0)),"")</f>
-        <v>Somalia</v>
+        <v>Guadeloupe</v>
       </c>
     </row>
     <row r="100" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA100" s="5" t="s">
-        <v>96</v>
+        <v>575</v>
       </c>
       <c r="AB100" s="5" t="s">
-        <v>398</v>
+        <v>576</v>
       </c>
       <c r="AC100" s="5" t="s">
-        <v>399</v>
+        <v>577</v>
       </c>
       <c r="AD100" s="5" t="s">
-        <v>363</v>
+        <v>685</v>
       </c>
       <c r="AE100" s="5">
         <f t="shared" si="5"/>
@@ -13088,21 +13268,21 @@
       </c>
       <c r="AG100" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF100),$AF$2:$AF$247,0)),"")</f>
-        <v>Sudan</v>
+        <v>Guam</v>
       </c>
     </row>
     <row r="101" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA101" s="5" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="AB101" s="5" t="s">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="AC101" s="5" t="s">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="AD101" s="5" t="s">
-        <v>363</v>
+        <v>288</v>
       </c>
       <c r="AE101" s="5">
         <f t="shared" si="5"/>
@@ -13114,21 +13294,21 @@
       </c>
       <c r="AG101" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF101),$AF$2:$AF$247,0)),"")</f>
-        <v>Syrian Arab Republic</v>
+        <v>Guatemala</v>
       </c>
     </row>
     <row r="102" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA102" s="5" t="s">
-        <v>98</v>
+        <v>797</v>
       </c>
       <c r="AB102" s="5" t="s">
-        <v>402</v>
+        <v>798</v>
       </c>
       <c r="AC102" s="5" t="s">
-        <v>403</v>
+        <v>799</v>
       </c>
       <c r="AD102" s="5" t="s">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="AE102" s="5">
         <f t="shared" si="5"/>
@@ -13140,21 +13320,21 @@
       </c>
       <c r="AG102" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF102),$AF$2:$AF$247,0)),"")</f>
-        <v>Tunisia</v>
+        <v>Guernsey</v>
       </c>
     </row>
     <row r="103" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA103" s="5" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="AB103" s="5" t="s">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="AC103" s="5" t="s">
-        <v>405</v>
+        <v>232</v>
       </c>
       <c r="AD103" s="5" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="AE103" s="5">
         <f t="shared" si="5"/>
@@ -13166,21 +13346,21 @@
       </c>
       <c r="AG103" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF103),$AF$2:$AF$247,0)),"")</f>
-        <v>United Arab Emirates</v>
+        <v>Guinea</v>
       </c>
     </row>
     <row r="104" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA104" s="5" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AB104" s="5" t="s">
-        <v>406</v>
+        <v>233</v>
       </c>
       <c r="AC104" s="5" t="s">
-        <v>407</v>
+        <v>234</v>
       </c>
       <c r="AD104" s="5" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="AE104" s="5">
         <f t="shared" si="5"/>
@@ -13192,21 +13372,21 @@
       </c>
       <c r="AG104" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF104),$AF$2:$AF$247,0)),"")</f>
-        <v>Yemen</v>
+        <v>Guinea-Bissau</v>
       </c>
     </row>
     <row r="105" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA105" s="5" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="AB105" s="5" t="s">
-        <v>408</v>
+        <v>324</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>409</v>
+        <v>325</v>
       </c>
       <c r="AD105" s="5" t="s">
-        <v>410</v>
+        <v>288</v>
       </c>
       <c r="AE105" s="5">
         <f t="shared" si="5"/>
@@ -13218,21 +13398,21 @@
       </c>
       <c r="AG105" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF105),$AF$2:$AF$247,0)),"")</f>
-        <v>Albania</v>
+        <v>Guyana</v>
       </c>
     </row>
     <row r="106" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA106" s="5" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="AB106" s="5" t="s">
-        <v>411</v>
+        <v>326</v>
       </c>
       <c r="AC106" s="5" t="s">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="AD106" s="5" t="s">
-        <v>410</v>
+        <v>288</v>
       </c>
       <c r="AE106" s="5">
         <f t="shared" si="5"/>
@@ -13244,21 +13424,21 @@
       </c>
       <c r="AG106" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF106),$AF$2:$AF$247,0)),"")</f>
-        <v>Andorra</v>
+        <v>Haiti</v>
       </c>
     </row>
     <row r="107" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA107" s="5" t="s">
-        <v>103</v>
+        <v>800</v>
       </c>
       <c r="AB107" s="5" t="s">
-        <v>413</v>
+        <v>801</v>
       </c>
       <c r="AC107" s="5" t="s">
-        <v>414</v>
+        <v>802</v>
       </c>
       <c r="AD107" s="5" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="AE107" s="5">
         <f t="shared" si="5"/>
@@ -13270,21 +13450,21 @@
       </c>
       <c r="AG107" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF107),$AF$2:$AF$247,0)),"")</f>
-        <v>Armenia</v>
+        <v>Heard Island and McDonald Islands</v>
       </c>
     </row>
     <row r="108" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA108" s="5" t="s">
-        <v>104</v>
+        <v>803</v>
       </c>
       <c r="AB108" s="5" t="s">
-        <v>415</v>
+        <v>804</v>
       </c>
       <c r="AC108" s="5" t="s">
-        <v>416</v>
+        <v>805</v>
       </c>
       <c r="AD108" s="5" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="AE108" s="5">
         <f t="shared" si="5"/>
@@ -13296,21 +13476,21 @@
       </c>
       <c r="AG108" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF108),$AF$2:$AF$247,0)),"")</f>
-        <v>Austria</v>
+        <v>Holy See</v>
       </c>
     </row>
     <row r="109" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA109" s="5" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="AB109" s="5" t="s">
-        <v>417</v>
+        <v>328</v>
       </c>
       <c r="AC109" s="5" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="AD109" s="5" t="s">
-        <v>410</v>
+        <v>288</v>
       </c>
       <c r="AE109" s="5">
         <f t="shared" si="5"/>
@@ -13322,21 +13502,21 @@
       </c>
       <c r="AG109" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF109),$AF$2:$AF$247,0)),"")</f>
-        <v>Azerbaijan</v>
+        <v>Honduras</v>
       </c>
     </row>
     <row r="110" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA110" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="AB110" s="5" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="AC110" s="5" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="AD110" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE110" s="5">
         <f t="shared" si="5"/>
@@ -13348,21 +13528,21 @@
       </c>
       <c r="AG110" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF110),$AF$2:$AF$247,0)),"")</f>
-        <v>Belarus</v>
+        <v>Hungary</v>
       </c>
     </row>
     <row r="111" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA111" s="5" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AB111" s="5" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="AC111" s="5" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="AD111" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE111" s="5">
         <f t="shared" si="5"/>
@@ -13374,21 +13554,21 @@
       </c>
       <c r="AG111" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF111),$AF$2:$AF$247,0)),"")</f>
-        <v>Belgium</v>
+        <v>Iceland</v>
       </c>
     </row>
     <row r="112" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA112" s="5" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="AB112" s="5" t="s">
-        <v>423</v>
+        <v>667</v>
       </c>
       <c r="AC112" s="5" t="s">
-        <v>424</v>
+        <v>668</v>
       </c>
       <c r="AD112" s="5" t="s">
-        <v>410</v>
+        <v>662</v>
       </c>
       <c r="AE112" s="5">
         <f t="shared" si="5"/>
@@ -13400,21 +13580,21 @@
       </c>
       <c r="AG112" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF112),$AF$2:$AF$247,0)),"")</f>
-        <v>Bosnia and Herzegovina</v>
+        <v>India</v>
       </c>
     </row>
     <row r="113" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA113" s="5" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="AB113" s="5" t="s">
-        <v>425</v>
+        <v>669</v>
       </c>
       <c r="AC113" s="5" t="s">
-        <v>426</v>
+        <v>670</v>
       </c>
       <c r="AD113" s="5" t="s">
-        <v>410</v>
+        <v>662</v>
       </c>
       <c r="AE113" s="5">
         <f t="shared" si="5"/>
@@ -13426,21 +13606,21 @@
       </c>
       <c r="AG113" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF113),$AF$2:$AF$247,0)),"")</f>
-        <v>Bulgaria</v>
+        <v>Indonesia</v>
       </c>
     </row>
     <row r="114" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA114" s="5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="AB114" s="5" t="s">
-        <v>427</v>
+        <v>367</v>
       </c>
       <c r="AC114" s="5" t="s">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="AD114" s="5" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AE114" s="5">
         <f t="shared" si="5"/>
@@ -13452,21 +13632,21 @@
       </c>
       <c r="AG114" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF114),$AF$2:$AF$247,0)),"")</f>
-        <v>Croatia</v>
+        <v>Iran (Islamic Republic of)</v>
       </c>
     </row>
     <row r="115" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA115" s="5" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="AB115" s="5" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="AC115" s="5" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="AD115" s="5" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AE115" s="5">
         <f t="shared" si="5"/>
@@ -13478,21 +13658,21 @@
       </c>
       <c r="AG115" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF115),$AF$2:$AF$247,0)),"")</f>
-        <v>Cyprus</v>
+        <v>Iraq</v>
       </c>
     </row>
     <row r="116" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA116" s="5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AB116" s="5" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="AC116" s="5" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="AD116" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE116" s="5">
         <f t="shared" si="5"/>
@@ -13504,21 +13684,21 @@
       </c>
       <c r="AG116" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF116),$AF$2:$AF$247,0)),"")</f>
-        <v>Czech Republic</v>
+        <v>Ireland</v>
       </c>
     </row>
     <row r="117" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA117" s="5" t="s">
-        <v>113</v>
+        <v>806</v>
       </c>
       <c r="AB117" s="5" t="s">
-        <v>433</v>
+        <v>807</v>
       </c>
       <c r="AC117" s="5" t="s">
-        <v>434</v>
+        <v>808</v>
       </c>
       <c r="AD117" s="5" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="AE117" s="5">
         <f t="shared" si="5"/>
@@ -13530,21 +13710,21 @@
       </c>
       <c r="AG117" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF117),$AF$2:$AF$247,0)),"")</f>
-        <v>Denmark</v>
+        <v>Isle of Man</v>
       </c>
     </row>
     <row r="118" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA118" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AB118" s="5" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="AC118" s="5" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="AD118" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE118" s="5">
         <f t="shared" si="5"/>
@@ -13556,21 +13736,21 @@
       </c>
       <c r="AG118" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF118),$AF$2:$AF$247,0)),"")</f>
-        <v>Estonia</v>
+        <v>Israel</v>
       </c>
     </row>
     <row r="119" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA119" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AB119" s="5" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="AC119" s="5" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="AD119" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE119" s="5">
         <f t="shared" si="5"/>
@@ -13582,21 +13762,21 @@
       </c>
       <c r="AG119" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF119),$AF$2:$AF$247,0)),"")</f>
-        <v>Finland</v>
+        <v>Italy</v>
       </c>
     </row>
     <row r="120" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA120" s="5" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="AB120" s="5" t="s">
-        <v>439</v>
+        <v>330</v>
       </c>
       <c r="AC120" s="5" t="s">
-        <v>440</v>
+        <v>331</v>
       </c>
       <c r="AD120" s="5" t="s">
-        <v>410</v>
+        <v>288</v>
       </c>
       <c r="AE120" s="5">
         <f t="shared" si="5"/>
@@ -13608,21 +13788,21 @@
       </c>
       <c r="AG120" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF120),$AF$2:$AF$247,0)),"")</f>
-        <v>France</v>
+        <v>Jamaica</v>
       </c>
     </row>
     <row r="121" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA121" s="5" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="AB121" s="5" t="s">
-        <v>441</v>
+        <v>697</v>
       </c>
       <c r="AC121" s="5" t="s">
-        <v>442</v>
+        <v>698</v>
       </c>
       <c r="AD121" s="5" t="s">
-        <v>410</v>
+        <v>685</v>
       </c>
       <c r="AE121" s="5">
         <f t="shared" si="5"/>
@@ -13634,21 +13814,21 @@
       </c>
       <c r="AG121" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF121),$AF$2:$AF$247,0)),"")</f>
-        <v>Georgia</v>
+        <v>Japan</v>
       </c>
     </row>
     <row r="122" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA122" s="5" t="s">
-        <v>118</v>
+        <v>809</v>
       </c>
       <c r="AB122" s="5" t="s">
-        <v>443</v>
+        <v>810</v>
       </c>
       <c r="AC122" s="5" t="s">
-        <v>444</v>
+        <v>811</v>
       </c>
       <c r="AD122" s="5" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="AE122" s="5">
         <f t="shared" si="5"/>
@@ -13660,21 +13840,21 @@
       </c>
       <c r="AG122" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF122),$AF$2:$AF$247,0)),"")</f>
-        <v>Germany</v>
+        <v>Jersey</v>
       </c>
     </row>
     <row r="123" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA123" s="5" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="AB123" s="5" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="AC123" s="5" t="s">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="AD123" s="5" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AE123" s="5">
         <f t="shared" si="5"/>
@@ -13686,21 +13866,21 @@
       </c>
       <c r="AG123" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF123),$AF$2:$AF$247,0)),"")</f>
-        <v>Greece</v>
+        <v>Jordan</v>
       </c>
     </row>
     <row r="124" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA124" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AB124" s="5" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AC124" s="5" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="AD124" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE124" s="5">
         <f t="shared" si="5"/>
@@ -13712,21 +13892,21 @@
       </c>
       <c r="AG124" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF124),$AF$2:$AF$247,0)),"")</f>
-        <v>Hungary</v>
+        <v>Kazakhstan</v>
       </c>
     </row>
     <row r="125" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA125" s="5" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="AB125" s="5" t="s">
-        <v>449</v>
+        <v>235</v>
       </c>
       <c r="AC125" s="5" t="s">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="AD125" s="5" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="AE125" s="5">
         <f t="shared" si="5"/>
@@ -13738,21 +13918,21 @@
       </c>
       <c r="AG125" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF125),$AF$2:$AF$247,0)),"")</f>
-        <v>Iceland</v>
+        <v>Kenya</v>
       </c>
     </row>
     <row r="126" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA126" s="5" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="AB126" s="5" t="s">
-        <v>451</v>
+        <v>699</v>
       </c>
       <c r="AC126" s="5" t="s">
-        <v>452</v>
+        <v>700</v>
       </c>
       <c r="AD126" s="5" t="s">
-        <v>410</v>
+        <v>685</v>
       </c>
       <c r="AE126" s="5">
         <f t="shared" si="5"/>
@@ -13764,21 +13944,21 @@
       </c>
       <c r="AG126" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF126),$AF$2:$AF$247,0)),"")</f>
-        <v>Ireland</v>
+        <v>Kiribati</v>
       </c>
     </row>
     <row r="127" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA127" s="5" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="AB127" s="5" t="s">
-        <v>453</v>
+        <v>373</v>
       </c>
       <c r="AC127" s="5" t="s">
-        <v>454</v>
+        <v>374</v>
       </c>
       <c r="AD127" s="5" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AE127" s="5">
         <f t="shared" si="5"/>
@@ -13790,7 +13970,7 @@
       </c>
       <c r="AG127" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF127),$AF$2:$AF$247,0)),"")</f>
-        <v>Israel</v>
+        <v>Kuwait</v>
       </c>
     </row>
     <row r="128" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13804,7 +13984,7 @@
         <v>456</v>
       </c>
       <c r="AD128" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE128" s="5">
         <f t="shared" si="5"/>
@@ -13816,24 +13996,24 @@
       </c>
       <c r="AG128" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF128),$AF$2:$AF$247,0)),"")</f>
-        <v>Italy</v>
+        <v>Kyrgyzstan</v>
       </c>
     </row>
     <row r="129" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA129" s="5" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="AB129" s="5" t="s">
-        <v>457</v>
+        <v>701</v>
       </c>
       <c r="AC129" s="5" t="s">
-        <v>458</v>
+        <v>702</v>
       </c>
       <c r="AD129" s="5" t="s">
-        <v>410</v>
+        <v>685</v>
       </c>
       <c r="AE129" s="5">
-        <f t="shared" ref="AE129:AE192" si="6">--ISNUMBER(IFERROR(SEARCH($X$1,AA129,1),""))</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF129" s="5">
@@ -13842,24 +14022,24 @@
       </c>
       <c r="AG129" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF129),$AF$2:$AF$247,0)),"")</f>
-        <v>Kazakhstan</v>
+        <v>Lao People's Democratic Republic</v>
       </c>
     </row>
     <row r="130" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA130" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB130" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AC130" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AD130" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE130" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF130" s="5">
@@ -13868,24 +14048,24 @@
       </c>
       <c r="AG130" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF130),$AF$2:$AF$247,0)),"")</f>
-        <v>Kyrgyzstan</v>
+        <v>Latvia</v>
       </c>
     </row>
     <row r="131" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA131" s="5" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="AB131" s="5" t="s">
-        <v>461</v>
+        <v>375</v>
       </c>
       <c r="AC131" s="5" t="s">
-        <v>462</v>
+        <v>376</v>
       </c>
       <c r="AD131" s="5" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AE131" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AE131:AE194" si="6">--ISNUMBER(IFERROR(SEARCH($X$1,AA131,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF131" s="5">
@@ -13894,21 +14074,21 @@
       </c>
       <c r="AG131" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF131),$AF$2:$AF$247,0)),"")</f>
-        <v>Latvia</v>
+        <v>Lebanon</v>
       </c>
     </row>
     <row r="132" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA132" s="5" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="AB132" s="5" t="s">
-        <v>463</v>
+        <v>237</v>
       </c>
       <c r="AC132" s="5" t="s">
-        <v>464</v>
+        <v>238</v>
       </c>
       <c r="AD132" s="5" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="AE132" s="5">
         <f t="shared" si="6"/>
@@ -13920,21 +14100,21 @@
       </c>
       <c r="AG132" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF132),$AF$2:$AF$247,0)),"")</f>
-        <v>Lithuania</v>
+        <v>Lesotho</v>
       </c>
     </row>
     <row r="133" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA133" s="5" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="AB133" s="5" t="s">
-        <v>465</v>
+        <v>239</v>
       </c>
       <c r="AC133" s="5" t="s">
-        <v>466</v>
+        <v>240</v>
       </c>
       <c r="AD133" s="5" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="AE133" s="5">
         <f t="shared" si="6"/>
@@ -13946,21 +14126,21 @@
       </c>
       <c r="AG133" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF133),$AF$2:$AF$247,0)),"")</f>
-        <v>Luxembourg</v>
+        <v>Liberia</v>
       </c>
     </row>
     <row r="134" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA134" s="5" t="s">
-        <v>130</v>
+        <v>377</v>
       </c>
       <c r="AB134" s="5" t="s">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="AC134" s="5" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
       <c r="AD134" s="5" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AE134" s="5">
         <f t="shared" si="6"/>
@@ -13972,21 +14152,21 @@
       </c>
       <c r="AG134" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF134),$AF$2:$AF$247,0)),"")</f>
-        <v>Malta</v>
+        <v>Libya</v>
       </c>
     </row>
     <row r="135" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA135" s="5" t="s">
-        <v>131</v>
+        <v>578</v>
       </c>
       <c r="AB135" s="5" t="s">
-        <v>469</v>
+        <v>579</v>
       </c>
       <c r="AC135" s="5" t="s">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="AD135" s="5" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="AE135" s="5">
         <f t="shared" si="6"/>
@@ -13998,21 +14178,21 @@
       </c>
       <c r="AG135" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF135),$AF$2:$AF$247,0)),"")</f>
-        <v>Monaco</v>
+        <v>Liechtenstein</v>
       </c>
     </row>
     <row r="136" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA136" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AB136" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="AC136" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="AD136" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE136" s="5">
         <f t="shared" si="6"/>
@@ -14024,21 +14204,21 @@
       </c>
       <c r="AG136" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF136),$AF$2:$AF$247,0)),"")</f>
-        <v>Montenegro</v>
+        <v>Lithuania</v>
       </c>
     </row>
     <row r="137" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA137" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AB137" s="5" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="AC137" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="AD137" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE137" s="5">
         <f t="shared" si="6"/>
@@ -14050,21 +14230,21 @@
       </c>
       <c r="AG137" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF137),$AF$2:$AF$247,0)),"")</f>
-        <v>Netherlands</v>
+        <v>Luxembourg</v>
       </c>
     </row>
     <row r="138" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA138" s="5" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="AB138" s="5" t="s">
-        <v>475</v>
+        <v>241</v>
       </c>
       <c r="AC138" s="5" t="s">
-        <v>476</v>
+        <v>242</v>
       </c>
       <c r="AD138" s="5" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="AE138" s="5">
         <f t="shared" si="6"/>
@@ -14076,21 +14256,21 @@
       </c>
       <c r="AG138" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF138),$AF$2:$AF$247,0)),"")</f>
-        <v>Norway</v>
+        <v>Madagascar</v>
       </c>
     </row>
     <row r="139" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA139" s="5" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="AB139" s="5" t="s">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="AC139" s="5" t="s">
-        <v>478</v>
+        <v>244</v>
       </c>
       <c r="AD139" s="5" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="AE139" s="5">
         <f t="shared" si="6"/>
@@ -14102,21 +14282,21 @@
       </c>
       <c r="AG139" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF139),$AF$2:$AF$247,0)),"")</f>
-        <v>Poland</v>
+        <v>Malawi</v>
       </c>
     </row>
     <row r="140" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA140" s="5" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="AB140" s="5" t="s">
-        <v>479</v>
+        <v>703</v>
       </c>
       <c r="AC140" s="5" t="s">
-        <v>480</v>
+        <v>704</v>
       </c>
       <c r="AD140" s="5" t="s">
-        <v>410</v>
+        <v>685</v>
       </c>
       <c r="AE140" s="5">
         <f t="shared" si="6"/>
@@ -14128,21 +14308,21 @@
       </c>
       <c r="AG140" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF140),$AF$2:$AF$247,0)),"")</f>
-        <v>Portugal</v>
+        <v>Malaysia</v>
       </c>
     </row>
     <row r="141" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA141" s="5" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="AB141" s="5" t="s">
-        <v>481</v>
+        <v>671</v>
       </c>
       <c r="AC141" s="5" t="s">
-        <v>482</v>
+        <v>672</v>
       </c>
       <c r="AD141" s="5" t="s">
-        <v>410</v>
+        <v>662</v>
       </c>
       <c r="AE141" s="5">
         <f t="shared" si="6"/>
@@ -14154,21 +14334,21 @@
       </c>
       <c r="AG141" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF141),$AF$2:$AF$247,0)),"")</f>
-        <v>Republic of Moldova</v>
+        <v>Maldives</v>
       </c>
     </row>
     <row r="142" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA142" s="5" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="AB142" s="5" t="s">
-        <v>483</v>
+        <v>245</v>
       </c>
       <c r="AC142" s="5" t="s">
-        <v>484</v>
+        <v>246</v>
       </c>
       <c r="AD142" s="5" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="AE142" s="5">
         <f t="shared" si="6"/>
@@ -14180,21 +14360,21 @@
       </c>
       <c r="AG142" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF142),$AF$2:$AF$247,0)),"")</f>
-        <v>Romania</v>
+        <v>Mali</v>
       </c>
     </row>
     <row r="143" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA143" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AB143" s="5" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="AC143" s="5" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="AD143" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE143" s="5">
         <f t="shared" si="6"/>
@@ -14206,21 +14386,21 @@
       </c>
       <c r="AG143" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF143),$AF$2:$AF$247,0)),"")</f>
-        <v>Russian Federation</v>
+        <v>Malta</v>
       </c>
     </row>
     <row r="144" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA144" s="5" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AB144" s="5" t="s">
-        <v>487</v>
+        <v>705</v>
       </c>
       <c r="AC144" s="5" t="s">
-        <v>488</v>
+        <v>706</v>
       </c>
       <c r="AD144" s="5" t="s">
-        <v>410</v>
+        <v>685</v>
       </c>
       <c r="AE144" s="5">
         <f t="shared" si="6"/>
@@ -14232,21 +14412,21 @@
       </c>
       <c r="AG144" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF144),$AF$2:$AF$247,0)),"")</f>
-        <v>San Marino</v>
+        <v>Marshall Islands</v>
       </c>
     </row>
     <row r="145" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA145" s="5" t="s">
-        <v>141</v>
+        <v>581</v>
       </c>
       <c r="AB145" s="5" t="s">
-        <v>489</v>
+        <v>582</v>
       </c>
       <c r="AC145" s="5" t="s">
-        <v>490</v>
+        <v>583</v>
       </c>
       <c r="AD145" s="5" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="AE145" s="5">
         <f t="shared" si="6"/>
@@ -14258,21 +14438,21 @@
       </c>
       <c r="AG145" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF145),$AF$2:$AF$247,0)),"")</f>
-        <v>Serbia</v>
+        <v>Martinique</v>
       </c>
     </row>
     <row r="146" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA146" s="5" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="AB146" s="5" t="s">
-        <v>491</v>
+        <v>247</v>
       </c>
       <c r="AC146" s="5" t="s">
-        <v>492</v>
+        <v>248</v>
       </c>
       <c r="AD146" s="5" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="AE146" s="5">
         <f t="shared" si="6"/>
@@ -14284,21 +14464,21 @@
       </c>
       <c r="AG146" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF146),$AF$2:$AF$247,0)),"")</f>
-        <v>Slovakia</v>
+        <v>Mauritania</v>
       </c>
     </row>
     <row r="147" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA147" s="5" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="AB147" s="5" t="s">
-        <v>493</v>
+        <v>249</v>
       </c>
       <c r="AC147" s="5" t="s">
-        <v>494</v>
+        <v>250</v>
       </c>
       <c r="AD147" s="5" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="AE147" s="5">
         <f t="shared" si="6"/>
@@ -14310,21 +14490,21 @@
       </c>
       <c r="AG147" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF147),$AF$2:$AF$247,0)),"")</f>
-        <v>Slovenia</v>
+        <v>Mauritius</v>
       </c>
     </row>
     <row r="148" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA148" s="5" t="s">
-        <v>144</v>
+        <v>584</v>
       </c>
       <c r="AB148" s="5" t="s">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="AC148" s="5" t="s">
-        <v>496</v>
+        <v>586</v>
       </c>
       <c r="AD148" s="5" t="s">
-        <v>410</v>
+        <v>514</v>
       </c>
       <c r="AE148" s="5">
         <f t="shared" si="6"/>
@@ -14336,21 +14516,21 @@
       </c>
       <c r="AG148" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF148),$AF$2:$AF$247,0)),"")</f>
-        <v>Spain</v>
+        <v>Mayotte</v>
       </c>
     </row>
     <row r="149" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA149" s="5" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="AB149" s="5" t="s">
-        <v>497</v>
+        <v>332</v>
       </c>
       <c r="AC149" s="5" t="s">
-        <v>498</v>
+        <v>333</v>
       </c>
       <c r="AD149" s="5" t="s">
-        <v>410</v>
+        <v>288</v>
       </c>
       <c r="AE149" s="5">
         <f t="shared" si="6"/>
@@ -14362,21 +14542,21 @@
       </c>
       <c r="AG149" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF149),$AF$2:$AF$247,0)),"")</f>
-        <v>Sweden</v>
+        <v>Mexico</v>
       </c>
     </row>
     <row r="150" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA150" s="5" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AB150" s="5" t="s">
-        <v>499</v>
+        <v>707</v>
       </c>
       <c r="AC150" s="5" t="s">
-        <v>500</v>
+        <v>708</v>
       </c>
       <c r="AD150" s="5" t="s">
-        <v>410</v>
+        <v>685</v>
       </c>
       <c r="AE150" s="5">
         <f t="shared" si="6"/>
@@ -14388,21 +14568,21 @@
       </c>
       <c r="AG150" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF150),$AF$2:$AF$247,0)),"")</f>
-        <v>Switzerland</v>
+        <v>Micronesia (Federated States of)</v>
       </c>
     </row>
     <row r="151" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA151" s="5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="AB151" s="5" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="AC151" s="5" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="AD151" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE151" s="5">
         <f t="shared" si="6"/>
@@ -14414,21 +14594,21 @@
       </c>
       <c r="AG151" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF151),$AF$2:$AF$247,0)),"")</f>
-        <v>Tajikistan</v>
+        <v>Monaco</v>
       </c>
     </row>
     <row r="152" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA152" s="5" t="s">
-        <v>503</v>
+        <v>172</v>
       </c>
       <c r="AB152" s="5" t="s">
-        <v>504</v>
+        <v>709</v>
       </c>
       <c r="AC152" s="5" t="s">
-        <v>505</v>
+        <v>710</v>
       </c>
       <c r="AD152" s="5" t="s">
-        <v>410</v>
+        <v>685</v>
       </c>
       <c r="AE152" s="5">
         <f t="shared" si="6"/>
@@ -14440,21 +14620,21 @@
       </c>
       <c r="AG152" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF152),$AF$2:$AF$247,0)),"")</f>
-        <v>The former Yugoslav republic of Macedonia</v>
+        <v>Mongolia</v>
       </c>
     </row>
     <row r="153" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA153" s="5" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="AB153" s="5" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="AC153" s="5" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="AD153" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AE153" s="5">
         <f t="shared" si="6"/>
@@ -14466,21 +14646,21 @@
       </c>
       <c r="AG153" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF153),$AF$2:$AF$247,0)),"")</f>
-        <v>Turkey</v>
+        <v>Montenegro</v>
       </c>
     </row>
     <row r="154" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA154" s="5" t="s">
-        <v>149</v>
+        <v>587</v>
       </c>
       <c r="AB154" s="5" t="s">
-        <v>508</v>
+        <v>588</v>
       </c>
       <c r="AC154" s="5" t="s">
-        <v>509</v>
+        <v>589</v>
       </c>
       <c r="AD154" s="5" t="s">
-        <v>410</v>
+        <v>288</v>
       </c>
       <c r="AE154" s="5">
         <f t="shared" si="6"/>
@@ -14492,21 +14672,21 @@
       </c>
       <c r="AG154" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF154),$AF$2:$AF$247,0)),"")</f>
-        <v>Turkmenistan</v>
+        <v>Montserrat</v>
       </c>
     </row>
     <row r="155" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA155" s="5" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="AB155" s="5" t="s">
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="AC155" s="5" t="s">
-        <v>511</v>
+        <v>381</v>
       </c>
       <c r="AD155" s="5" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AE155" s="5">
         <f t="shared" si="6"/>
@@ -14518,21 +14698,21 @@
       </c>
       <c r="AG155" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF155),$AF$2:$AF$247,0)),"")</f>
-        <v>Ukraine</v>
+        <v>Morocco</v>
       </c>
     </row>
     <row r="156" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA156" s="5" t="s">
-        <v>512</v>
+        <v>31</v>
       </c>
       <c r="AB156" s="5" t="s">
-        <v>513</v>
+        <v>251</v>
       </c>
       <c r="AC156" s="5" t="s">
-        <v>514</v>
+        <v>252</v>
       </c>
       <c r="AD156" s="5" t="s">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="AE156" s="5">
         <f t="shared" si="6"/>
@@ -14544,21 +14724,21 @@
       </c>
       <c r="AG156" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF156),$AF$2:$AF$247,0)),"")</f>
-        <v>United Kingdom of Great Britain and Northern Ireland</v>
+        <v>Mozambique</v>
       </c>
     </row>
     <row r="157" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA157" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="AB157" s="5" t="s">
-        <v>515</v>
+        <v>673</v>
       </c>
       <c r="AC157" s="5" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
       <c r="AD157" s="5" t="s">
-        <v>410</v>
+        <v>662</v>
       </c>
       <c r="AE157" s="5">
         <f t="shared" si="6"/>
@@ -14570,21 +14750,21 @@
       </c>
       <c r="AG157" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF157),$AF$2:$AF$247,0)),"")</f>
-        <v>Uzbekistan</v>
+        <v>Myanmar</v>
       </c>
     </row>
     <row r="158" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA158" s="5" t="s">
-        <v>517</v>
+        <v>32</v>
       </c>
       <c r="AB158" s="5" t="s">
-        <v>518</v>
+        <v>253</v>
       </c>
       <c r="AC158" s="5" t="s">
-        <v>519</v>
+        <v>254</v>
       </c>
       <c r="AD158" s="5" t="s">
-        <v>520</v>
+        <v>192</v>
       </c>
       <c r="AE158" s="5">
         <f t="shared" si="6"/>
@@ -14596,21 +14776,21 @@
       </c>
       <c r="AG158" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF158),$AF$2:$AF$247,0)),"")</f>
-        <v>American Samoa</v>
+        <v>Namibia</v>
       </c>
     </row>
     <row r="159" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA159" s="5" t="s">
-        <v>521</v>
+        <v>173</v>
       </c>
       <c r="AB159" s="5" t="s">
-        <v>522</v>
+        <v>711</v>
       </c>
       <c r="AC159" s="5" t="s">
-        <v>523</v>
+        <v>712</v>
       </c>
       <c r="AD159" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE159" s="5">
         <f t="shared" si="6"/>
@@ -14622,21 +14802,21 @@
       </c>
       <c r="AG159" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF159),$AF$2:$AF$247,0)),"")</f>
-        <v>Anguilla</v>
+        <v>Nauru</v>
       </c>
     </row>
     <row r="160" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA160" s="5" t="s">
-        <v>524</v>
+        <v>157</v>
       </c>
       <c r="AB160" s="5" t="s">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="AC160" s="5" t="s">
-        <v>526</v>
+        <v>676</v>
       </c>
       <c r="AD160" s="5" t="s">
-        <v>520</v>
+        <v>662</v>
       </c>
       <c r="AE160" s="5">
         <f t="shared" si="6"/>
@@ -14648,21 +14828,21 @@
       </c>
       <c r="AG160" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF160),$AF$2:$AF$247,0)),"")</f>
-        <v>Aruba</v>
+        <v>Nepal</v>
       </c>
     </row>
     <row r="161" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA161" s="5" t="s">
-        <v>527</v>
+        <v>131</v>
       </c>
       <c r="AB161" s="5" t="s">
-        <v>528</v>
+        <v>469</v>
       </c>
       <c r="AC161" s="5" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="AD161" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE161" s="5">
         <f t="shared" si="6"/>
@@ -14674,21 +14854,21 @@
       </c>
       <c r="AG161" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF161),$AF$2:$AF$247,0)),"")</f>
-        <v>Bermuda</v>
+        <v>Netherlands</v>
       </c>
     </row>
     <row r="162" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA162" s="5" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="AB162" s="5" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="AC162" s="5" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="AD162" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE162" s="5">
         <f t="shared" si="6"/>
@@ -14700,21 +14880,21 @@
       </c>
       <c r="AG162" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF162),$AF$2:$AF$247,0)),"")</f>
-        <v>Bonaire, Saint Eustatius and Saba</v>
+        <v>Netherlands Antilles</v>
       </c>
     </row>
     <row r="163" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA163" s="5" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="AB163" s="5" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="AC163" s="5" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="AD163" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE163" s="5">
         <f t="shared" si="6"/>
@@ -14726,21 +14906,21 @@
       </c>
       <c r="AG163" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF163),$AF$2:$AF$247,0)),"")</f>
-        <v>British Virgin Islands</v>
+        <v>New Caledonia</v>
       </c>
     </row>
     <row r="164" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA164" s="5" t="s">
-        <v>536</v>
+        <v>174</v>
       </c>
       <c r="AB164" s="5" t="s">
-        <v>537</v>
+        <v>713</v>
       </c>
       <c r="AC164" s="5" t="s">
-        <v>538</v>
+        <v>714</v>
       </c>
       <c r="AD164" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE164" s="5">
         <f t="shared" si="6"/>
@@ -14752,21 +14932,21 @@
       </c>
       <c r="AG164" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF164),$AF$2:$AF$247,0)),"")</f>
-        <v>Cayman Islands</v>
+        <v>New Zealand</v>
       </c>
     </row>
     <row r="165" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA165" s="5" t="s">
-        <v>539</v>
+        <v>68</v>
       </c>
       <c r="AB165" s="5" t="s">
-        <v>540</v>
+        <v>334</v>
       </c>
       <c r="AC165" s="5" t="s">
-        <v>541</v>
+        <v>335</v>
       </c>
       <c r="AD165" s="5" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="AE165" s="5">
         <f t="shared" si="6"/>
@@ -14778,21 +14958,21 @@
       </c>
       <c r="AG165" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF165),$AF$2:$AF$247,0)),"")</f>
-        <v>China, Hong Kong Special Administrative Region</v>
+        <v>Nicaragua</v>
       </c>
     </row>
     <row r="166" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA166" s="5" t="s">
-        <v>542</v>
+        <v>33</v>
       </c>
       <c r="AB166" s="5" t="s">
-        <v>543</v>
+        <v>255</v>
       </c>
       <c r="AC166" s="5" t="s">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="AD166" s="5" t="s">
-        <v>520</v>
+        <v>192</v>
       </c>
       <c r="AE166" s="5">
         <f t="shared" si="6"/>
@@ -14804,21 +14984,21 @@
       </c>
       <c r="AG166" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF166),$AF$2:$AF$247,0)),"")</f>
-        <v>China, Macao Special Administrative Region</v>
+        <v>Niger</v>
       </c>
     </row>
     <row r="167" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA167" s="5" t="s">
-        <v>545</v>
+        <v>34</v>
       </c>
       <c r="AB167" s="5" t="s">
-        <v>546</v>
+        <v>257</v>
       </c>
       <c r="AC167" s="5" t="s">
-        <v>547</v>
+        <v>258</v>
       </c>
       <c r="AD167" s="5" t="s">
-        <v>520</v>
+        <v>192</v>
       </c>
       <c r="AE167" s="5">
         <f t="shared" si="6"/>
@@ -14830,21 +15010,21 @@
       </c>
       <c r="AG167" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF167),$AF$2:$AF$247,0)),"")</f>
-        <v>China: Province of Taiwan only</v>
+        <v>Nigeria</v>
       </c>
     </row>
     <row r="168" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA168" s="5" t="s">
-        <v>548</v>
+        <v>175</v>
       </c>
       <c r="AB168" s="5" t="s">
-        <v>549</v>
+        <v>715</v>
       </c>
       <c r="AC168" s="5" t="s">
-        <v>550</v>
+        <v>716</v>
       </c>
       <c r="AD168" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE168" s="5">
         <f t="shared" si="6"/>
@@ -14856,21 +15036,21 @@
       </c>
       <c r="AG168" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF168),$AF$2:$AF$247,0)),"")</f>
-        <v>Curacao</v>
+        <v>Niue</v>
       </c>
     </row>
     <row r="169" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA169" s="5" t="s">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="AB169" s="5" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
       <c r="AC169" s="5" t="s">
-        <v>553</v>
+        <v>598</v>
       </c>
       <c r="AD169" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE169" s="5">
         <f t="shared" si="6"/>
@@ -14882,21 +15062,21 @@
       </c>
       <c r="AG169" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF169),$AF$2:$AF$247,0)),"")</f>
-        <v>Czechoslovakia, Former</v>
+        <v>Norfolk Island</v>
       </c>
     </row>
     <row r="170" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA170" s="5" t="s">
-        <v>554</v>
+        <v>812</v>
       </c>
       <c r="AB170" s="5" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
       <c r="AC170" s="5" t="s">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="AD170" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE170" s="5">
         <f t="shared" si="6"/>
@@ -14908,21 +15088,21 @@
       </c>
       <c r="AG170" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF170),$AF$2:$AF$247,0)),"")</f>
-        <v>Falkland Islands (Malvinas)</v>
+        <v>North Macedonia</v>
       </c>
     </row>
     <row r="171" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA171" s="5" t="s">
-        <v>557</v>
+        <v>599</v>
       </c>
       <c r="AB171" s="5" t="s">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="AC171" s="5" t="s">
-        <v>559</v>
+        <v>601</v>
       </c>
       <c r="AD171" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE171" s="5">
         <f t="shared" si="6"/>
@@ -14934,21 +15114,21 @@
       </c>
       <c r="AG171" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF171),$AF$2:$AF$247,0)),"")</f>
-        <v>Faroe Islands</v>
+        <v>Northern Mariana Islands</v>
       </c>
     </row>
     <row r="172" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA172" s="5" t="s">
-        <v>560</v>
+        <v>132</v>
       </c>
       <c r="AB172" s="5" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="AC172" s="5" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="AD172" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE172" s="5">
         <f t="shared" si="6"/>
@@ -14960,21 +15140,21 @@
       </c>
       <c r="AG172" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF172),$AF$2:$AF$247,0)),"")</f>
-        <v>French Guiana</v>
+        <v>Norway</v>
       </c>
     </row>
     <row r="173" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA173" s="5" t="s">
-        <v>563</v>
+        <v>90</v>
       </c>
       <c r="AB173" s="5" t="s">
-        <v>564</v>
+        <v>382</v>
       </c>
       <c r="AC173" s="5" t="s">
-        <v>565</v>
+        <v>383</v>
       </c>
       <c r="AD173" s="5" t="s">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="AE173" s="5">
         <f t="shared" si="6"/>
@@ -14986,21 +15166,21 @@
       </c>
       <c r="AG173" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF173),$AF$2:$AF$247,0)),"")</f>
-        <v>French Polynesia</v>
+        <v>Oman</v>
       </c>
     </row>
     <row r="174" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA174" s="5" t="s">
-        <v>566</v>
+        <v>91</v>
       </c>
       <c r="AB174" s="5" t="s">
-        <v>567</v>
+        <v>384</v>
       </c>
       <c r="AC174" s="5" t="s">
-        <v>568</v>
+        <v>385</v>
       </c>
       <c r="AD174" s="5" t="s">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="AE174" s="5">
         <f t="shared" si="6"/>
@@ -15012,21 +15192,21 @@
       </c>
       <c r="AG174" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF174),$AF$2:$AF$247,0)),"")</f>
-        <v>Germany, Former Democratic Republic</v>
+        <v>Pakistan</v>
       </c>
     </row>
     <row r="175" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA175" s="5" t="s">
-        <v>569</v>
+        <v>717</v>
       </c>
       <c r="AB175" s="5" t="s">
-        <v>570</v>
+        <v>718</v>
       </c>
       <c r="AC175" s="5" t="s">
-        <v>571</v>
+        <v>719</v>
       </c>
       <c r="AD175" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE175" s="5">
         <f t="shared" si="6"/>
@@ -15038,21 +15218,21 @@
       </c>
       <c r="AG175" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF175),$AF$2:$AF$247,0)),"")</f>
-        <v>Germany, Former Federal Republic</v>
+        <v>Palau</v>
       </c>
     </row>
     <row r="176" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA176" s="5" t="s">
-        <v>572</v>
+        <v>69</v>
       </c>
       <c r="AB176" s="5" t="s">
-        <v>573</v>
+        <v>336</v>
       </c>
       <c r="AC176" s="5" t="s">
-        <v>574</v>
+        <v>337</v>
       </c>
       <c r="AD176" s="5" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="AE176" s="5">
         <f t="shared" si="6"/>
@@ -15064,21 +15244,21 @@
       </c>
       <c r="AG176" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF176),$AF$2:$AF$247,0)),"")</f>
-        <v>Germany, West Berlin</v>
+        <v>Panama</v>
       </c>
     </row>
     <row r="177" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA177" s="5" t="s">
-        <v>575</v>
+        <v>176</v>
       </c>
       <c r="AB177" s="5" t="s">
-        <v>576</v>
+        <v>720</v>
       </c>
       <c r="AC177" s="5" t="s">
-        <v>577</v>
+        <v>721</v>
       </c>
       <c r="AD177" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE177" s="5">
         <f t="shared" si="6"/>
@@ -15090,21 +15270,21 @@
       </c>
       <c r="AG177" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF177),$AF$2:$AF$247,0)),"")</f>
-        <v>Gibraltar</v>
+        <v>Papua New Guinea</v>
       </c>
     </row>
     <row r="178" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA178" s="5" t="s">
-        <v>578</v>
+        <v>70</v>
       </c>
       <c r="AB178" s="5" t="s">
-        <v>579</v>
+        <v>338</v>
       </c>
       <c r="AC178" s="5" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AD178" s="5" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="AE178" s="5">
         <f t="shared" si="6"/>
@@ -15116,21 +15296,21 @@
       </c>
       <c r="AG178" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF178),$AF$2:$AF$247,0)),"")</f>
-        <v>Greenland</v>
+        <v>Paraguay</v>
       </c>
     </row>
     <row r="179" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA179" s="5" t="s">
-        <v>581</v>
+        <v>71</v>
       </c>
       <c r="AB179" s="5" t="s">
-        <v>582</v>
+        <v>340</v>
       </c>
       <c r="AC179" s="5" t="s">
-        <v>583</v>
+        <v>341</v>
       </c>
       <c r="AD179" s="5" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="AE179" s="5">
         <f t="shared" si="6"/>
@@ -15142,21 +15322,21 @@
       </c>
       <c r="AG179" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF179),$AF$2:$AF$247,0)),"")</f>
-        <v>Guadeloupe</v>
+        <v>Peru</v>
       </c>
     </row>
     <row r="180" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA180" s="5" t="s">
-        <v>584</v>
+        <v>177</v>
       </c>
       <c r="AB180" s="5" t="s">
-        <v>585</v>
+        <v>722</v>
       </c>
       <c r="AC180" s="5" t="s">
-        <v>586</v>
+        <v>723</v>
       </c>
       <c r="AD180" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE180" s="5">
         <f t="shared" si="6"/>
@@ -15168,21 +15348,21 @@
       </c>
       <c r="AG180" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF180),$AF$2:$AF$247,0)),"")</f>
-        <v>Guam</v>
+        <v>Philippines</v>
       </c>
     </row>
     <row r="181" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA181" s="5" t="s">
-        <v>587</v>
+        <v>813</v>
       </c>
       <c r="AB181" s="5" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="AC181" s="5" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="AD181" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE181" s="5">
         <f t="shared" si="6"/>
@@ -15194,21 +15374,21 @@
       </c>
       <c r="AG181" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF181),$AF$2:$AF$247,0)),"")</f>
-        <v>Liechtenstein</v>
+        <v>Pitcairn</v>
       </c>
     </row>
     <row r="182" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA182" s="5" t="s">
-        <v>590</v>
+        <v>133</v>
       </c>
       <c r="AB182" s="5" t="s">
-        <v>591</v>
+        <v>473</v>
       </c>
       <c r="AC182" s="5" t="s">
-        <v>592</v>
+        <v>474</v>
       </c>
       <c r="AD182" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE182" s="5">
         <f t="shared" si="6"/>
@@ -15220,21 +15400,21 @@
       </c>
       <c r="AG182" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF182),$AF$2:$AF$247,0)),"")</f>
-        <v>Martinique</v>
+        <v>Poland</v>
       </c>
     </row>
     <row r="183" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA183" s="5" t="s">
-        <v>593</v>
+        <v>134</v>
       </c>
       <c r="AB183" s="5" t="s">
-        <v>594</v>
+        <v>475</v>
       </c>
       <c r="AC183" s="5" t="s">
-        <v>595</v>
+        <v>476</v>
       </c>
       <c r="AD183" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE183" s="5">
         <f t="shared" si="6"/>
@@ -15246,21 +15426,21 @@
       </c>
       <c r="AG183" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF183),$AF$2:$AF$247,0)),"")</f>
-        <v>Mayotte</v>
+        <v>Portugal</v>
       </c>
     </row>
     <row r="184" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA184" s="5" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AB184" s="5" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="AC184" s="5" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="AD184" s="5" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="AE184" s="5">
         <f t="shared" si="6"/>
@@ -15272,21 +15452,21 @@
       </c>
       <c r="AG184" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF184),$AF$2:$AF$247,0)),"")</f>
-        <v>Montserrat</v>
+        <v>Puerto Rico</v>
       </c>
     </row>
     <row r="185" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA185" s="5" t="s">
-        <v>599</v>
+        <v>92</v>
       </c>
       <c r="AB185" s="5" t="s">
-        <v>600</v>
+        <v>388</v>
       </c>
       <c r="AC185" s="5" t="s">
-        <v>601</v>
+        <v>389</v>
       </c>
       <c r="AD185" s="5" t="s">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="AE185" s="5">
         <f t="shared" si="6"/>
@@ -15298,21 +15478,21 @@
       </c>
       <c r="AG185" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF185),$AF$2:$AF$247,0)),"")</f>
-        <v>Netherlands Antilles</v>
+        <v>Qatar</v>
       </c>
     </row>
     <row r="186" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA186" s="5" t="s">
-        <v>602</v>
+        <v>178</v>
       </c>
       <c r="AB186" s="5" t="s">
-        <v>603</v>
+        <v>724</v>
       </c>
       <c r="AC186" s="5" t="s">
-        <v>604</v>
+        <v>725</v>
       </c>
       <c r="AD186" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE186" s="5">
         <f t="shared" si="6"/>
@@ -15324,21 +15504,21 @@
       </c>
       <c r="AG186" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF186),$AF$2:$AF$247,0)),"")</f>
-        <v>New Caledonia</v>
+        <v>Republic of Korea</v>
       </c>
     </row>
     <row r="187" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA187" s="5" t="s">
-        <v>605</v>
+        <v>135</v>
       </c>
       <c r="AB187" s="5" t="s">
-        <v>606</v>
+        <v>477</v>
       </c>
       <c r="AC187" s="5" t="s">
-        <v>607</v>
+        <v>478</v>
       </c>
       <c r="AD187" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE187" s="5">
         <f t="shared" si="6"/>
@@ -15350,21 +15530,21 @@
       </c>
       <c r="AG187" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF187),$AF$2:$AF$247,0)),"")</f>
-        <v>Norfolk Island</v>
+        <v>Republic of Moldova</v>
       </c>
     </row>
     <row r="188" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA188" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB188" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="AB188" s="5" t="s">
+      <c r="AC188" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="AC188" s="5" t="s">
-        <v>610</v>
-      </c>
       <c r="AD188" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE188" s="5">
         <f t="shared" si="6"/>
@@ -15376,21 +15556,21 @@
       </c>
       <c r="AG188" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF188),$AF$2:$AF$247,0)),"")</f>
-        <v>Northern Mariana Islands</v>
+        <v>Rodrigues</v>
       </c>
     </row>
     <row r="189" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA189" s="5" t="s">
-        <v>611</v>
+        <v>136</v>
       </c>
       <c r="AB189" s="5" t="s">
-        <v>612</v>
+        <v>479</v>
       </c>
       <c r="AC189" s="5" t="s">
-        <v>613</v>
+        <v>480</v>
       </c>
       <c r="AD189" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE189" s="5">
         <f t="shared" si="6"/>
@@ -15402,21 +15582,21 @@
       </c>
       <c r="AG189" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF189),$AF$2:$AF$247,0)),"")</f>
-        <v>Pitcairn Island</v>
+        <v>Romania</v>
       </c>
     </row>
     <row r="190" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA190" s="5" t="s">
-        <v>614</v>
+        <v>137</v>
       </c>
       <c r="AB190" s="5" t="s">
-        <v>615</v>
+        <v>481</v>
       </c>
       <c r="AC190" s="5" t="s">
-        <v>616</v>
+        <v>482</v>
       </c>
       <c r="AD190" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE190" s="5">
         <f t="shared" si="6"/>
@@ -15428,21 +15608,21 @@
       </c>
       <c r="AG190" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF190),$AF$2:$AF$247,0)),"")</f>
-        <v>Puerto Rico</v>
+        <v>Russian Federation</v>
       </c>
     </row>
     <row r="191" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA191" s="5" t="s">
-        <v>617</v>
+        <v>35</v>
       </c>
       <c r="AB191" s="5" t="s">
-        <v>618</v>
+        <v>259</v>
       </c>
       <c r="AC191" s="5" t="s">
-        <v>619</v>
+        <v>260</v>
       </c>
       <c r="AD191" s="5" t="s">
-        <v>520</v>
+        <v>192</v>
       </c>
       <c r="AE191" s="5">
         <f t="shared" si="6"/>
@@ -15454,21 +15634,21 @@
       </c>
       <c r="AG191" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF191),$AF$2:$AF$247,0)),"")</f>
-        <v>Rodrigues</v>
+        <v>Rwanda</v>
       </c>
     </row>
     <row r="192" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA192" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="AB192" s="5" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="AC192" s="5" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="AD192" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE192" s="5">
         <f t="shared" si="6"/>
@@ -15480,24 +15660,24 @@
       </c>
       <c r="AG192" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF192),$AF$2:$AF$247,0)),"")</f>
-        <v>Rï¿½union</v>
+        <v>Ryu Kyu Islands</v>
       </c>
     </row>
     <row r="193" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA193" s="5" t="s">
-        <v>623</v>
+        <v>814</v>
       </c>
       <c r="AB193" s="5" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="AC193" s="5" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="AD193" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE193" s="5">
-        <f t="shared" ref="AE193:AE247" si="7">--ISNUMBER(IFERROR(SEARCH($X$1,AA193,1),""))</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF193" s="5">
@@ -15506,24 +15686,24 @@
       </c>
       <c r="AG193" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF193),$AF$2:$AF$247,0)),"")</f>
-        <v>Ryu Kyu Islands</v>
+        <v>Réunion</v>
       </c>
     </row>
     <row r="194" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA194" s="5" t="s">
-        <v>626</v>
+        <v>815</v>
       </c>
       <c r="AB194" s="5" t="s">
-        <v>627</v>
+        <v>816</v>
       </c>
       <c r="AC194" s="5" t="s">
-        <v>628</v>
+        <v>817</v>
       </c>
       <c r="AD194" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE194" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AF194" s="5">
@@ -15532,24 +15712,24 @@
       </c>
       <c r="AG194" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF194),$AF$2:$AF$247,0)),"")</f>
-        <v>Saint Helena</v>
+        <v>Saint Barthélemy</v>
       </c>
     </row>
     <row r="195" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA195" s="5" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="AB195" s="5" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="AC195" s="5" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="AD195" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE195" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AE195:AE258" si="7">--ISNUMBER(IFERROR(SEARCH($X$1,AA195,1),""))</f>
         <v>1</v>
       </c>
       <c r="AF195" s="5">
@@ -15558,21 +15738,21 @@
       </c>
       <c r="AG195" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF195),$AF$2:$AF$247,0)),"")</f>
-        <v>Saint Pierre and Miquelon</v>
+        <v>Saint Helena</v>
       </c>
     </row>
     <row r="196" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA196" s="5" t="s">
-        <v>632</v>
+        <v>72</v>
       </c>
       <c r="AB196" s="5" t="s">
-        <v>633</v>
+        <v>342</v>
       </c>
       <c r="AC196" s="5" t="s">
-        <v>634</v>
+        <v>343</v>
       </c>
       <c r="AD196" s="5" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="AE196" s="5">
         <f t="shared" si="7"/>
@@ -15584,21 +15764,21 @@
       </c>
       <c r="AG196" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF196),$AF$2:$AF$247,0)),"")</f>
-        <v>Serbia and Montenegro, Former</v>
+        <v>Saint Kitts and Nevis</v>
       </c>
     </row>
     <row r="197" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA197" s="5" t="s">
-        <v>635</v>
+        <v>73</v>
       </c>
       <c r="AB197" s="5" t="s">
-        <v>636</v>
+        <v>344</v>
       </c>
       <c r="AC197" s="5" t="s">
-        <v>637</v>
+        <v>345</v>
       </c>
       <c r="AD197" s="5" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="AE197" s="5">
         <f t="shared" si="7"/>
@@ -15610,21 +15790,21 @@
       </c>
       <c r="AG197" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF197),$AF$2:$AF$247,0)),"")</f>
-        <v>Sint Maarten (Dutch part)</v>
+        <v>Saint Lucia</v>
       </c>
     </row>
     <row r="198" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA198" s="5" t="s">
-        <v>638</v>
+        <v>818</v>
       </c>
       <c r="AB198" s="5" t="s">
-        <v>639</v>
+        <v>819</v>
       </c>
       <c r="AC198" s="5" t="s">
-        <v>640</v>
+        <v>820</v>
       </c>
       <c r="AD198" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE198" s="5">
         <f t="shared" si="7"/>
@@ -15636,21 +15816,21 @@
       </c>
       <c r="AG198" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF198),$AF$2:$AF$247,0)),"")</f>
-        <v>Sudan (former)</v>
+        <v>Saint Martin (French part)</v>
       </c>
     </row>
     <row r="199" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA199" s="5" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="AB199" s="5" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="AC199" s="5" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="AD199" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE199" s="5">
         <f t="shared" si="7"/>
@@ -15662,21 +15842,21 @@
       </c>
       <c r="AG199" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF199),$AF$2:$AF$247,0)),"")</f>
-        <v>The former state union Serbia and Montenegro</v>
+        <v>Saint Pierre and Miquelon</v>
       </c>
     </row>
     <row r="200" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA200" s="5" t="s">
-        <v>644</v>
+        <v>74</v>
       </c>
       <c r="AB200" s="5" t="s">
-        <v>645</v>
+        <v>346</v>
       </c>
       <c r="AC200" s="5" t="s">
-        <v>646</v>
+        <v>347</v>
       </c>
       <c r="AD200" s="5" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="AE200" s="5">
         <f t="shared" si="7"/>
@@ -15688,21 +15868,21 @@
       </c>
       <c r="AG200" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF200),$AF$2:$AF$247,0)),"")</f>
-        <v>Tokelau</v>
+        <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
     <row r="201" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA201" s="5" t="s">
-        <v>647</v>
+        <v>179</v>
       </c>
       <c r="AB201" s="5" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="AC201" s="5" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="AD201" s="5" t="s">
-        <v>520</v>
+        <v>685</v>
       </c>
       <c r="AE201" s="5">
         <f t="shared" si="7"/>
@@ -15714,21 +15894,21 @@
       </c>
       <c r="AG201" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF201),$AF$2:$AF$247,0)),"")</f>
-        <v>Turks and Caicos Islands</v>
+        <v>Samoa</v>
       </c>
     </row>
     <row r="202" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA202" s="5" t="s">
-        <v>650</v>
+        <v>138</v>
       </c>
       <c r="AB202" s="5" t="s">
-        <v>651</v>
+        <v>483</v>
       </c>
       <c r="AC202" s="5" t="s">
-        <v>652</v>
+        <v>484</v>
       </c>
       <c r="AD202" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE202" s="5">
         <f t="shared" si="7"/>
@@ -15740,21 +15920,21 @@
       </c>
       <c r="AG202" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF202),$AF$2:$AF$247,0)),"")</f>
-        <v>United Kingdom, England and Wales</v>
+        <v>San Marino</v>
       </c>
     </row>
     <row r="203" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA203" s="5" t="s">
-        <v>653</v>
+        <v>36</v>
       </c>
       <c r="AB203" s="5" t="s">
-        <v>654</v>
+        <v>261</v>
       </c>
       <c r="AC203" s="5" t="s">
-        <v>655</v>
+        <v>262</v>
       </c>
       <c r="AD203" s="5" t="s">
-        <v>520</v>
+        <v>192</v>
       </c>
       <c r="AE203" s="5">
         <f t="shared" si="7"/>
@@ -15766,21 +15946,21 @@
       </c>
       <c r="AG203" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF203),$AF$2:$AF$247,0)),"")</f>
-        <v>United Kingdom, Northern Ireland</v>
+        <v>Sao Tome and Principe</v>
       </c>
     </row>
     <row r="204" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA204" s="5" t="s">
-        <v>656</v>
+        <v>93</v>
       </c>
       <c r="AB204" s="5" t="s">
-        <v>657</v>
+        <v>390</v>
       </c>
       <c r="AC204" s="5" t="s">
-        <v>658</v>
+        <v>391</v>
       </c>
       <c r="AD204" s="5" t="s">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="AE204" s="5">
         <f t="shared" si="7"/>
@@ -15792,21 +15972,21 @@
       </c>
       <c r="AG204" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF204),$AF$2:$AF$247,0)),"")</f>
-        <v>United Kingdom, Scotland</v>
+        <v>Saudi Arabia</v>
       </c>
     </row>
     <row r="205" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA205" s="5" t="s">
-        <v>659</v>
+        <v>37</v>
       </c>
       <c r="AB205" s="5" t="s">
-        <v>660</v>
+        <v>263</v>
       </c>
       <c r="AC205" s="5" t="s">
-        <v>661</v>
+        <v>264</v>
       </c>
       <c r="AD205" s="5" t="s">
-        <v>520</v>
+        <v>192</v>
       </c>
       <c r="AE205" s="5">
         <f t="shared" si="7"/>
@@ -15818,21 +15998,21 @@
       </c>
       <c r="AG205" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF205),$AF$2:$AF$247,0)),"")</f>
-        <v>USSR, Former</v>
+        <v>Senegal</v>
       </c>
     </row>
     <row r="206" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA206" s="5" t="s">
-        <v>662</v>
+        <v>139</v>
       </c>
       <c r="AB206" s="5" t="s">
-        <v>663</v>
+        <v>485</v>
       </c>
       <c r="AC206" s="5" t="s">
-        <v>664</v>
+        <v>486</v>
       </c>
       <c r="AD206" s="5" t="s">
-        <v>520</v>
+        <v>406</v>
       </c>
       <c r="AE206" s="5">
         <f t="shared" si="7"/>
@@ -15844,21 +16024,21 @@
       </c>
       <c r="AG206" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF206),$AF$2:$AF$247,0)),"")</f>
-        <v>Virgin Islands (USA)</v>
+        <v>Serbia</v>
       </c>
     </row>
     <row r="207" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA207" s="5" t="s">
-        <v>665</v>
+        <v>621</v>
       </c>
       <c r="AB207" s="5" t="s">
-        <v>666</v>
+        <v>622</v>
       </c>
       <c r="AC207" s="5" t="s">
-        <v>667</v>
+        <v>623</v>
       </c>
       <c r="AD207" s="5" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="AE207" s="5">
         <f t="shared" si="7"/>
@@ -15870,21 +16050,21 @@
       </c>
       <c r="AG207" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF207),$AF$2:$AF$247,0)),"")</f>
-        <v>Wallis and Futuna Islands</v>
+        <v>Serbia and Montenegro, Former</v>
       </c>
     </row>
     <row r="208" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA208" s="5" t="s">
-        <v>668</v>
+        <v>38</v>
       </c>
       <c r="AB208" s="5" t="s">
-        <v>669</v>
+        <v>265</v>
       </c>
       <c r="AC208" s="5" t="s">
-        <v>670</v>
+        <v>266</v>
       </c>
       <c r="AD208" s="5" t="s">
-        <v>520</v>
+        <v>192</v>
       </c>
       <c r="AE208" s="5">
         <f t="shared" si="7"/>
@@ -15896,21 +16076,21 @@
       </c>
       <c r="AG208" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF208),$AF$2:$AF$247,0)),"")</f>
-        <v>West Bank</v>
+        <v>Seychelles</v>
       </c>
     </row>
     <row r="209" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA209" s="5" t="s">
-        <v>671</v>
+        <v>39</v>
       </c>
       <c r="AB209" s="5" t="s">
-        <v>672</v>
+        <v>267</v>
       </c>
       <c r="AC209" s="5" t="s">
-        <v>673</v>
+        <v>268</v>
       </c>
       <c r="AD209" s="5" t="s">
-        <v>520</v>
+        <v>192</v>
       </c>
       <c r="AE209" s="5">
         <f t="shared" si="7"/>
@@ -15922,21 +16102,21 @@
       </c>
       <c r="AG209" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF209),$AF$2:$AF$247,0)),"")</f>
-        <v>Yugoslavia, Former</v>
+        <v>Sierra Leone</v>
       </c>
     </row>
     <row r="210" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA210" s="5" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="AB210" s="5" t="s">
-        <v>674</v>
+        <v>728</v>
       </c>
       <c r="AC210" s="5" t="s">
-        <v>675</v>
+        <v>729</v>
       </c>
       <c r="AD210" s="5" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="AE210" s="5">
         <f t="shared" si="7"/>
@@ -15948,21 +16128,21 @@
       </c>
       <c r="AG210" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF210),$AF$2:$AF$247,0)),"")</f>
-        <v>Bangladesh</v>
+        <v>Singapore</v>
       </c>
     </row>
     <row r="211" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA211" s="5" t="s">
-        <v>153</v>
+        <v>624</v>
       </c>
       <c r="AB211" s="5" t="s">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="AC211" s="5" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="AD211" s="5" t="s">
-        <v>676</v>
+        <v>288</v>
       </c>
       <c r="AE211" s="5">
         <f t="shared" si="7"/>
@@ -15974,21 +16154,21 @@
       </c>
       <c r="AG211" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF211),$AF$2:$AF$247,0)),"")</f>
-        <v>Bhutan</v>
+        <v>Sint Maarten (Dutch part)</v>
       </c>
     </row>
     <row r="212" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA212" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AB212" s="5" t="s">
-        <v>679</v>
+        <v>487</v>
       </c>
       <c r="AC212" s="5" t="s">
-        <v>680</v>
+        <v>488</v>
       </c>
       <c r="AD212" s="5" t="s">
-        <v>676</v>
+        <v>406</v>
       </c>
       <c r="AE212" s="5">
         <f t="shared" si="7"/>
@@ -16000,21 +16180,21 @@
       </c>
       <c r="AG212" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF212),$AF$2:$AF$247,0)),"")</f>
-        <v>Democratic People's Republic of Korea</v>
+        <v>Slovakia</v>
       </c>
     </row>
     <row r="213" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA213" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AB213" s="5" t="s">
-        <v>681</v>
+        <v>489</v>
       </c>
       <c r="AC213" s="5" t="s">
-        <v>682</v>
+        <v>490</v>
       </c>
       <c r="AD213" s="5" t="s">
-        <v>676</v>
+        <v>406</v>
       </c>
       <c r="AE213" s="5">
         <f t="shared" si="7"/>
@@ -16026,21 +16206,21 @@
       </c>
       <c r="AG213" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF213),$AF$2:$AF$247,0)),"")</f>
-        <v>India</v>
+        <v>Slovenia</v>
       </c>
     </row>
     <row r="214" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA214" s="5" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="AB214" s="5" t="s">
-        <v>683</v>
+        <v>730</v>
       </c>
       <c r="AC214" s="5" t="s">
-        <v>684</v>
+        <v>731</v>
       </c>
       <c r="AD214" s="5" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="AE214" s="5">
         <f t="shared" si="7"/>
@@ -16052,21 +16232,21 @@
       </c>
       <c r="AG214" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF214),$AF$2:$AF$247,0)),"")</f>
-        <v>Indonesia</v>
+        <v>Solomon Islands</v>
       </c>
     </row>
     <row r="215" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA215" s="5" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="AB215" s="5" t="s">
-        <v>685</v>
+        <v>392</v>
       </c>
       <c r="AC215" s="5" t="s">
-        <v>686</v>
+        <v>393</v>
       </c>
       <c r="AD215" s="5" t="s">
-        <v>676</v>
+        <v>360</v>
       </c>
       <c r="AE215" s="5">
         <f t="shared" si="7"/>
@@ -16078,21 +16258,21 @@
       </c>
       <c r="AG215" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF215),$AF$2:$AF$247,0)),"")</f>
-        <v>Maldives</v>
+        <v>Somalia</v>
       </c>
     </row>
     <row r="216" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA216" s="5" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="AB216" s="5" t="s">
-        <v>687</v>
+        <v>269</v>
       </c>
       <c r="AC216" s="5" t="s">
-        <v>688</v>
+        <v>270</v>
       </c>
       <c r="AD216" s="5" t="s">
-        <v>676</v>
+        <v>192</v>
       </c>
       <c r="AE216" s="5">
         <f t="shared" si="7"/>
@@ -16104,21 +16284,21 @@
       </c>
       <c r="AG216" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF216),$AF$2:$AF$247,0)),"")</f>
-        <v>Myanmar</v>
+        <v>South Africa</v>
       </c>
     </row>
     <row r="217" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA217" s="5" t="s">
-        <v>159</v>
+        <v>821</v>
       </c>
       <c r="AB217" s="5" t="s">
-        <v>689</v>
+        <v>822</v>
       </c>
       <c r="AC217" s="5" t="s">
-        <v>690</v>
+        <v>823</v>
       </c>
       <c r="AD217" s="5" t="s">
-        <v>676</v>
+        <v>514</v>
       </c>
       <c r="AE217" s="5">
         <f t="shared" si="7"/>
@@ -16130,21 +16310,21 @@
       </c>
       <c r="AG217" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF217),$AF$2:$AF$247,0)),"")</f>
-        <v>Nepal</v>
+        <v>South Georgia and the South Sandwich Islands</v>
       </c>
     </row>
     <row r="218" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA218" s="5" t="s">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="AB218" s="5" t="s">
-        <v>691</v>
+        <v>272</v>
       </c>
       <c r="AC218" s="5" t="s">
-        <v>692</v>
+        <v>273</v>
       </c>
       <c r="AD218" s="5" t="s">
-        <v>676</v>
+        <v>192</v>
       </c>
       <c r="AE218" s="5">
         <f t="shared" si="7"/>
@@ -16156,21 +16336,21 @@
       </c>
       <c r="AG218" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF218),$AF$2:$AF$247,0)),"")</f>
-        <v>Sri Lanka</v>
+        <v>South Sudan</v>
       </c>
     </row>
     <row r="219" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA219" s="5" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="AB219" s="5" t="s">
-        <v>693</v>
+        <v>491</v>
       </c>
       <c r="AC219" s="5" t="s">
-        <v>694</v>
+        <v>492</v>
       </c>
       <c r="AD219" s="5" t="s">
-        <v>676</v>
+        <v>406</v>
       </c>
       <c r="AE219" s="5">
         <f t="shared" si="7"/>
@@ -16182,21 +16362,21 @@
       </c>
       <c r="AG219" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF219),$AF$2:$AF$247,0)),"")</f>
-        <v>Thailand</v>
+        <v>Spain</v>
       </c>
     </row>
     <row r="220" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA220" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AB220" s="5" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="AC220" s="5" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="AD220" s="5" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="AE220" s="5">
         <f t="shared" si="7"/>
@@ -16208,21 +16388,21 @@
       </c>
       <c r="AG220" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF220),$AF$2:$AF$247,0)),"")</f>
-        <v>Timor-Leste</v>
+        <v>Sri Lanka</v>
       </c>
     </row>
     <row r="221" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA221" s="5" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="AB221" s="5" t="s">
-        <v>697</v>
+        <v>394</v>
       </c>
       <c r="AC221" s="5" t="s">
-        <v>698</v>
+        <v>395</v>
       </c>
       <c r="AD221" s="5" t="s">
-        <v>699</v>
+        <v>360</v>
       </c>
       <c r="AE221" s="5">
         <f t="shared" si="7"/>
@@ -16234,21 +16414,21 @@
       </c>
       <c r="AG221" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF221),$AF$2:$AF$247,0)),"")</f>
-        <v>Australia</v>
+        <v>Sudan</v>
       </c>
     </row>
     <row r="222" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA222" s="5" t="s">
-        <v>164</v>
+        <v>627</v>
       </c>
       <c r="AB222" s="5" t="s">
-        <v>700</v>
+        <v>628</v>
       </c>
       <c r="AC222" s="5" t="s">
-        <v>701</v>
+        <v>629</v>
       </c>
       <c r="AD222" s="5" t="s">
-        <v>699</v>
+        <v>514</v>
       </c>
       <c r="AE222" s="5">
         <f t="shared" si="7"/>
@@ -16260,21 +16440,21 @@
       </c>
       <c r="AG222" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF222),$AF$2:$AF$247,0)),"")</f>
-        <v>Brunei Darussalam</v>
+        <v>Sudan (former)</v>
       </c>
     </row>
     <row r="223" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA223" s="5" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="AB223" s="5" t="s">
-        <v>702</v>
+        <v>348</v>
       </c>
       <c r="AC223" s="5" t="s">
-        <v>703</v>
+        <v>349</v>
       </c>
       <c r="AD223" s="5" t="s">
-        <v>699</v>
+        <v>288</v>
       </c>
       <c r="AE223" s="5">
         <f t="shared" si="7"/>
@@ -16286,21 +16466,21 @@
       </c>
       <c r="AG223" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF223),$AF$2:$AF$247,0)),"")</f>
-        <v>Cambodia</v>
+        <v>Suriname</v>
       </c>
     </row>
     <row r="224" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA224" s="5" t="s">
-        <v>704</v>
+        <v>824</v>
       </c>
       <c r="AB224" s="5" t="s">
-        <v>705</v>
+        <v>825</v>
       </c>
       <c r="AC224" s="5" t="s">
-        <v>706</v>
+        <v>826</v>
       </c>
       <c r="AD224" s="5" t="s">
-        <v>699</v>
+        <v>514</v>
       </c>
       <c r="AE224" s="5">
         <f t="shared" si="7"/>
@@ -16312,21 +16492,21 @@
       </c>
       <c r="AG224" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF224),$AF$2:$AF$247,0)),"")</f>
-        <v>China</v>
+        <v>Svalbard and Jan Mayen</v>
       </c>
     </row>
     <row r="225" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA225" s="5" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="AB225" s="5" t="s">
-        <v>707</v>
+        <v>493</v>
       </c>
       <c r="AC225" s="5" t="s">
-        <v>708</v>
+        <v>494</v>
       </c>
       <c r="AD225" s="5" t="s">
-        <v>699</v>
+        <v>406</v>
       </c>
       <c r="AE225" s="5">
         <f t="shared" si="7"/>
@@ -16338,21 +16518,21 @@
       </c>
       <c r="AG225" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF225),$AF$2:$AF$247,0)),"")</f>
-        <v>Cook Islands</v>
+        <v>Sweden</v>
       </c>
     </row>
     <row r="226" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA226" s="5" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="AB226" s="5" t="s">
-        <v>709</v>
+        <v>495</v>
       </c>
       <c r="AC226" s="5" t="s">
-        <v>710</v>
+        <v>496</v>
       </c>
       <c r="AD226" s="5" t="s">
-        <v>699</v>
+        <v>406</v>
       </c>
       <c r="AE226" s="5">
         <f t="shared" si="7"/>
@@ -16364,21 +16544,21 @@
       </c>
       <c r="AG226" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF226),$AF$2:$AF$247,0)),"")</f>
-        <v>Fiji</v>
+        <v>Switzerland</v>
       </c>
     </row>
     <row r="227" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA227" s="5" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="AB227" s="5" t="s">
-        <v>711</v>
+        <v>396</v>
       </c>
       <c r="AC227" s="5" t="s">
-        <v>712</v>
+        <v>397</v>
       </c>
       <c r="AD227" s="5" t="s">
-        <v>699</v>
+        <v>360</v>
       </c>
       <c r="AE227" s="5">
         <f t="shared" si="7"/>
@@ -16390,21 +16570,21 @@
       </c>
       <c r="AG227" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF227),$AF$2:$AF$247,0)),"")</f>
-        <v>Japan</v>
+        <v>Syrian Arab Republic</v>
       </c>
     </row>
     <row r="228" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA228" s="5" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="AB228" s="5" t="s">
-        <v>713</v>
+        <v>497</v>
       </c>
       <c r="AC228" s="5" t="s">
-        <v>714</v>
+        <v>498</v>
       </c>
       <c r="AD228" s="5" t="s">
-        <v>699</v>
+        <v>406</v>
       </c>
       <c r="AE228" s="5">
         <f t="shared" si="7"/>
@@ -16416,21 +16596,21 @@
       </c>
       <c r="AG228" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF228),$AF$2:$AF$247,0)),"")</f>
-        <v>Kiribati</v>
+        <v>Tajikistan</v>
       </c>
     </row>
     <row r="229" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA229" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AB229" s="5" t="s">
-        <v>715</v>
+        <v>679</v>
       </c>
       <c r="AC229" s="5" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
       <c r="AD229" s="5" t="s">
-        <v>699</v>
+        <v>662</v>
       </c>
       <c r="AE229" s="5">
         <f t="shared" si="7"/>
@@ -16442,21 +16622,21 @@
       </c>
       <c r="AG229" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF229),$AF$2:$AF$247,0)),"")</f>
-        <v>Lao People's Democratic Republic</v>
+        <v>Thailand</v>
       </c>
     </row>
     <row r="230" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA230" s="5" t="s">
-        <v>171</v>
+        <v>630</v>
       </c>
       <c r="AB230" s="5" t="s">
-        <v>717</v>
+        <v>631</v>
       </c>
       <c r="AC230" s="5" t="s">
-        <v>718</v>
+        <v>632</v>
       </c>
       <c r="AD230" s="5" t="s">
-        <v>699</v>
+        <v>514</v>
       </c>
       <c r="AE230" s="5">
         <f t="shared" si="7"/>
@@ -16468,21 +16648,21 @@
       </c>
       <c r="AG230" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF230),$AF$2:$AF$247,0)),"")</f>
-        <v>Malaysia</v>
+        <v>The former state union Serbia and Montenegro</v>
       </c>
     </row>
     <row r="231" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA231" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="AB231" s="5" t="s">
-        <v>719</v>
+        <v>681</v>
       </c>
       <c r="AC231" s="5" t="s">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="AD231" s="5" t="s">
-        <v>699</v>
+        <v>662</v>
       </c>
       <c r="AE231" s="5">
         <f t="shared" si="7"/>
@@ -16494,21 +16674,21 @@
       </c>
       <c r="AG231" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF231),$AF$2:$AF$247,0)),"")</f>
-        <v>Marshall Islands</v>
+        <v>Timor-Leste</v>
       </c>
     </row>
     <row r="232" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA232" s="5" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AB232" s="5" t="s">
-        <v>721</v>
+        <v>276</v>
       </c>
       <c r="AC232" s="5" t="s">
-        <v>722</v>
+        <v>277</v>
       </c>
       <c r="AD232" s="5" t="s">
-        <v>699</v>
+        <v>192</v>
       </c>
       <c r="AE232" s="5">
         <f t="shared" si="7"/>
@@ -16520,21 +16700,21 @@
       </c>
       <c r="AG232" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF232),$AF$2:$AF$247,0)),"")</f>
-        <v>Micronesia (Federated States of)</v>
+        <v>Togo</v>
       </c>
     </row>
     <row r="233" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA233" s="5" t="s">
-        <v>174</v>
+        <v>633</v>
       </c>
       <c r="AB233" s="5" t="s">
-        <v>723</v>
+        <v>634</v>
       </c>
       <c r="AC233" s="5" t="s">
-        <v>724</v>
+        <v>635</v>
       </c>
       <c r="AD233" s="5" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="AE233" s="5">
         <f t="shared" si="7"/>
@@ -16546,21 +16726,21 @@
       </c>
       <c r="AG233" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF233),$AF$2:$AF$247,0)),"")</f>
-        <v>Mongolia</v>
+        <v>Tokelau</v>
       </c>
     </row>
     <row r="234" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA234" s="5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AB234" s="5" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="AC234" s="5" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="AD234" s="5" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="AE234" s="5">
         <f t="shared" si="7"/>
@@ -16572,21 +16752,21 @@
       </c>
       <c r="AG234" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF234),$AF$2:$AF$247,0)),"")</f>
-        <v>Nauru</v>
+        <v>Tonga</v>
       </c>
     </row>
     <row r="235" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA235" s="5" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AB235" s="5" t="s">
-        <v>727</v>
+        <v>350</v>
       </c>
       <c r="AC235" s="5" t="s">
-        <v>728</v>
+        <v>351</v>
       </c>
       <c r="AD235" s="5" t="s">
-        <v>699</v>
+        <v>288</v>
       </c>
       <c r="AE235" s="5">
         <f t="shared" si="7"/>
@@ -16598,21 +16778,21 @@
       </c>
       <c r="AG235" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF235),$AF$2:$AF$247,0)),"")</f>
-        <v>New Zealand</v>
+        <v>Trinidad and Tobago</v>
       </c>
     </row>
     <row r="236" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA236" s="5" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="AB236" s="5" t="s">
-        <v>729</v>
+        <v>398</v>
       </c>
       <c r="AC236" s="5" t="s">
-        <v>730</v>
+        <v>399</v>
       </c>
       <c r="AD236" s="5" t="s">
-        <v>699</v>
+        <v>360</v>
       </c>
       <c r="AE236" s="5">
         <f t="shared" si="7"/>
@@ -16624,21 +16804,21 @@
       </c>
       <c r="AG236" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF236),$AF$2:$AF$247,0)),"")</f>
-        <v>Niue</v>
+        <v>Tunisia</v>
       </c>
     </row>
     <row r="237" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA237" s="5" t="s">
-        <v>731</v>
+        <v>146</v>
       </c>
       <c r="AB237" s="5" t="s">
-        <v>732</v>
+        <v>501</v>
       </c>
       <c r="AC237" s="5" t="s">
-        <v>733</v>
+        <v>502</v>
       </c>
       <c r="AD237" s="5" t="s">
-        <v>699</v>
+        <v>406</v>
       </c>
       <c r="AE237" s="5">
         <f t="shared" si="7"/>
@@ -16650,21 +16830,21 @@
       </c>
       <c r="AG237" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF237),$AF$2:$AF$247,0)),"")</f>
-        <v>Palau</v>
+        <v>Turkey</v>
       </c>
     </row>
     <row r="238" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA238" s="5" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="AB238" s="5" t="s">
-        <v>734</v>
+        <v>503</v>
       </c>
       <c r="AC238" s="5" t="s">
-        <v>735</v>
+        <v>504</v>
       </c>
       <c r="AD238" s="5" t="s">
-        <v>699</v>
+        <v>406</v>
       </c>
       <c r="AE238" s="5">
         <f t="shared" si="7"/>
@@ -16676,21 +16856,21 @@
       </c>
       <c r="AG238" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF238),$AF$2:$AF$247,0)),"")</f>
-        <v>Papua New Guinea</v>
+        <v>Turkmenistan</v>
       </c>
     </row>
     <row r="239" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA239" s="5" t="s">
-        <v>179</v>
+        <v>636</v>
       </c>
       <c r="AB239" s="5" t="s">
-        <v>736</v>
+        <v>637</v>
       </c>
       <c r="AC239" s="5" t="s">
-        <v>737</v>
+        <v>638</v>
       </c>
       <c r="AD239" s="5" t="s">
-        <v>699</v>
+        <v>288</v>
       </c>
       <c r="AE239" s="5">
         <f t="shared" si="7"/>
@@ -16702,21 +16882,21 @@
       </c>
       <c r="AG239" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF239),$AF$2:$AF$247,0)),"")</f>
-        <v>Philippines</v>
+        <v>Turks and Caicos Islands</v>
       </c>
     </row>
     <row r="240" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA240" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AB240" s="5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="AC240" s="5" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="AD240" s="5" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="AE240" s="5">
         <f t="shared" si="7"/>
@@ -16728,21 +16908,21 @@
       </c>
       <c r="AG240" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF240),$AF$2:$AF$247,0)),"")</f>
-        <v>Republic of Korea</v>
+        <v>Tuvalu</v>
       </c>
     </row>
     <row r="241" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA241" s="5" t="s">
-        <v>181</v>
+        <v>827</v>
       </c>
       <c r="AB241" s="5" t="s">
-        <v>740</v>
+        <v>651</v>
       </c>
       <c r="AC241" s="5" t="s">
-        <v>741</v>
+        <v>652</v>
       </c>
       <c r="AD241" s="5" t="s">
-        <v>699</v>
+        <v>288</v>
       </c>
       <c r="AE241" s="5">
         <f t="shared" si="7"/>
@@ -16754,21 +16934,21 @@
       </c>
       <c r="AG241" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF241),$AF$2:$AF$247,0)),"")</f>
-        <v>Samoa</v>
+        <v>US Virgin Islands</v>
       </c>
     </row>
     <row r="242" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA242" s="5" t="s">
-        <v>182</v>
+        <v>648</v>
       </c>
       <c r="AB242" s="5" t="s">
-        <v>742</v>
+        <v>649</v>
       </c>
       <c r="AC242" s="5" t="s">
-        <v>743</v>
+        <v>650</v>
       </c>
       <c r="AD242" s="5" t="s">
-        <v>699</v>
+        <v>514</v>
       </c>
       <c r="AE242" s="5">
         <f t="shared" si="7"/>
@@ -16780,21 +16960,21 @@
       </c>
       <c r="AG242" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF242),$AF$2:$AF$247,0)),"")</f>
-        <v>Singapore</v>
+        <v>USSR, Former</v>
       </c>
     </row>
     <row r="243" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA243" s="5" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="AB243" s="5" t="s">
-        <v>744</v>
+        <v>278</v>
       </c>
       <c r="AC243" s="5" t="s">
-        <v>745</v>
+        <v>279</v>
       </c>
       <c r="AD243" s="5" t="s">
-        <v>699</v>
+        <v>192</v>
       </c>
       <c r="AE243" s="5">
         <f t="shared" si="7"/>
@@ -16806,21 +16986,21 @@
       </c>
       <c r="AG243" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF243),$AF$2:$AF$247,0)),"")</f>
-        <v>Solomon Islands</v>
+        <v>Uganda</v>
       </c>
     </row>
     <row r="244" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA244" s="5" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="AB244" s="5" t="s">
-        <v>746</v>
+        <v>505</v>
       </c>
       <c r="AC244" s="5" t="s">
-        <v>747</v>
+        <v>506</v>
       </c>
       <c r="AD244" s="5" t="s">
-        <v>699</v>
+        <v>406</v>
       </c>
       <c r="AE244" s="5">
         <f t="shared" si="7"/>
@@ -16832,21 +17012,21 @@
       </c>
       <c r="AG244" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF244),$AF$2:$AF$247,0)),"")</f>
-        <v>Tonga</v>
+        <v>Ukraine</v>
       </c>
     </row>
     <row r="245" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA245" s="5" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="AB245" s="5" t="s">
-        <v>748</v>
+        <v>400</v>
       </c>
       <c r="AC245" s="5" t="s">
-        <v>749</v>
+        <v>401</v>
       </c>
       <c r="AD245" s="5" t="s">
-        <v>699</v>
+        <v>360</v>
       </c>
       <c r="AE245" s="5">
         <f t="shared" si="7"/>
@@ -16858,21 +17038,21 @@
       </c>
       <c r="AG245" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF245),$AF$2:$AF$247,0)),"")</f>
-        <v>Tuvalu</v>
+        <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="246" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA246" s="5" t="s">
-        <v>186</v>
+        <v>828</v>
       </c>
       <c r="AB246" s="5" t="s">
-        <v>750</v>
+        <v>507</v>
       </c>
       <c r="AC246" s="5" t="s">
-        <v>751</v>
+        <v>508</v>
       </c>
       <c r="AD246" s="5" t="s">
-        <v>699</v>
+        <v>406</v>
       </c>
       <c r="AE246" s="5">
         <f t="shared" si="7"/>
@@ -16884,21 +17064,21 @@
       </c>
       <c r="AG246" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF246),$AF$2:$AF$247,0)),"")</f>
-        <v>Vanuatu</v>
+        <v>United Kingdom of Great Britain and Northern Irela</v>
       </c>
     </row>
     <row r="247" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AA247" s="5" t="s">
-        <v>187</v>
+        <v>639</v>
       </c>
       <c r="AB247" s="5" t="s">
-        <v>752</v>
+        <v>640</v>
       </c>
       <c r="AC247" s="5" t="s">
-        <v>753</v>
+        <v>641</v>
       </c>
       <c r="AD247" s="5" t="s">
-        <v>699</v>
+        <v>514</v>
       </c>
       <c r="AE247" s="5">
         <f t="shared" si="7"/>
@@ -16910,11 +17090,505 @@
       </c>
       <c r="AG247" s="5" t="str">
         <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF247),$AF$2:$AF$247,0)),"")</f>
-        <v>Viet Nam</v>
+        <v>United Kingdom, England and Wales</v>
+      </c>
+    </row>
+    <row r="248" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA248" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB248" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="AC248" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="AD248" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE248" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF248" s="5">
+        <f>IF(AE248=1,COUNTIF($AE$2:AE248,1),"")</f>
+        <v>247</v>
+      </c>
+      <c r="AG248" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF248),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA249" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="AB249" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="AC249" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="AD249" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE249" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF249" s="5">
+        <f>IF(AE249=1,COUNTIF($AE$2:AE249,1),"")</f>
+        <v>248</v>
+      </c>
+      <c r="AG249" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF249),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA250" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB250" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC250" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD250" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE250" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF250" s="5">
+        <f>IF(AE250=1,COUNTIF($AE$2:AE250,1),"")</f>
+        <v>249</v>
+      </c>
+      <c r="AG250" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF250),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA251" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="AB251" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="AC251" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="AD251" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE251" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF251" s="5">
+        <f>IF(AE251=1,COUNTIF($AE$2:AE251,1),"")</f>
+        <v>250</v>
+      </c>
+      <c r="AG251" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF251),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA252" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB252" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC252" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD252" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE252" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF252" s="5">
+        <f>IF(AE252=1,COUNTIF($AE$2:AE252,1),"")</f>
+        <v>251</v>
+      </c>
+      <c r="AG252" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF252),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA253" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB253" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC253" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD253" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE253" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF253" s="5">
+        <f>IF(AE253=1,COUNTIF($AE$2:AE253,1),"")</f>
+        <v>252</v>
+      </c>
+      <c r="AG253" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF253),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA254" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB254" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="AC254" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD254" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE254" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF254" s="5">
+        <f>IF(AE254=1,COUNTIF($AE$2:AE254,1),"")</f>
+        <v>253</v>
+      </c>
+      <c r="AG254" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF254),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA255" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB255" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="AC255" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD255" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="AE255" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF255" s="5">
+        <f>IF(AE255=1,COUNTIF($AE$2:AE255,1),"")</f>
+        <v>254</v>
+      </c>
+      <c r="AG255" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF255),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA256" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB256" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC256" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD256" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE256" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF256" s="5">
+        <f>IF(AE256=1,COUNTIF($AE$2:AE256,1),"")</f>
+        <v>255</v>
+      </c>
+      <c r="AG256" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF256),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA257" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB257" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="AC257" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD257" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="AE257" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF257" s="5">
+        <f>IF(AE257=1,COUNTIF($AE$2:AE257,1),"")</f>
+        <v>256</v>
+      </c>
+      <c r="AG257" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF257),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA258" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="AB258" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC258" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD258" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="AE258" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AF258" s="5">
+        <f>IF(AE258=1,COUNTIF($AE$2:AE258,1),"")</f>
+        <v>257</v>
+      </c>
+      <c r="AG258" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF258),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA259" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB259" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="AC259" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="AD259" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE259" s="5">
+        <f t="shared" ref="AE259:AE266" si="8">--ISNUMBER(IFERROR(SEARCH($X$1,AA259,1),""))</f>
+        <v>1</v>
+      </c>
+      <c r="AF259" s="5">
+        <f>IF(AE259=1,COUNTIF($AE$2:AE259,1),"")</f>
+        <v>258</v>
+      </c>
+      <c r="AG259" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF259),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA260" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="AB260" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC260" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD260" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE260" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF260" s="5">
+        <f>IF(AE260=1,COUNTIF($AE$2:AE260,1),"")</f>
+        <v>259</v>
+      </c>
+      <c r="AG260" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF260),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA261" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="AB261" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="AC261" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="AD261" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE261" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF261" s="5">
+        <f>IF(AE261=1,COUNTIF($AE$2:AE261,1),"")</f>
+        <v>260</v>
+      </c>
+      <c r="AG261" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF261),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA262" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB262" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC262" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD262" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE262" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF262" s="5">
+        <f>IF(AE262=1,COUNTIF($AE$2:AE262,1),"")</f>
+        <v>261</v>
+      </c>
+      <c r="AG262" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF262),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA263" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB263" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC263" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD263" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE263" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF263" s="5">
+        <f>IF(AE263=1,COUNTIF($AE$2:AE263,1),"")</f>
+        <v>262</v>
+      </c>
+      <c r="AG263" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF263),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA264" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB264" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC264" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD264" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE264" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF264" s="5">
+        <f>IF(AE264=1,COUNTIF($AE$2:AE264,1),"")</f>
+        <v>263</v>
+      </c>
+      <c r="AG264" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF264),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA265" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB265" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC265" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD265" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE265" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF265" s="5">
+        <f>IF(AE265=1,COUNTIF($AE$2:AE265,1),"")</f>
+        <v>264</v>
+      </c>
+      <c r="AG265" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF265),$AF$2:$AF$247,0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="27:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA266" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="AB266" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="AC266" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="AD266" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE266" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AF266" s="5">
+        <f>IF(AE266=1,COUNTIF($AE$2:AE266,1),"")</f>
+        <v>265</v>
+      </c>
+      <c r="AG266" s="5" t="str">
+        <f>IFERROR(INDEX($AA$2:$AA$247,MATCH(ROWS($AF$2:AF266),$AF$2:$AF$247,0)),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="g+XTd9Ea1/wrkyQO1WUoGBwW0yVMxFSMjqpUCRp3XGfsPUV9cXXx/cV8pq24Ip6vO18PVuzF2Nc+lAIpWub1IA==" saltValue="tI/UlwS/F93GO5FsYCEIsw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="XfDwIpUIBWI2s6+b0hJEsthfBsQNQgCCUMhT5ZTZwR1dJfBR2xLIuhMmjUhyOALvsa1q8HA9UeGAkdrLn+LvBw==" saltValue="dL1GqrR2uLtVme22zPaC5w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -17166,7 +17840,7 @@
   <sheetData>
     <row r="1" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -17185,7 +17859,7 @@
     </row>
     <row r="2" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -17266,115 +17940,115 @@
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="F6" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>773</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>768</v>
-      </c>
       <c r="L6" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q6" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>768</v>
-      </c>
       <c r="R6" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="U6" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="W6" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="S6" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="T6" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>776</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>768</v>
-      </c>
       <c r="X6" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="Z6" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA6" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="AC6" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="Y6" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="AA6" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="AC6" s="17" t="s">
-        <v>768</v>
-      </c>
       <c r="AD6" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE6" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="AF6" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG6" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="AH6" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="AI6" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="AE6" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="AF6" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="AG6" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="AH6" s="16" t="s">
-        <v>778</v>
-      </c>
-      <c r="AI6" s="17" t="s">
-        <v>768</v>
-      </c>
       <c r="AJ6" s="17" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="AK6" s="17" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="AL6" s="17" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="AM6" s="17" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -17489,10 +18163,10 @@
     </row>
     <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="20">
@@ -17599,10 +18273,10 @@
     </row>
     <row r="9" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20">
@@ -17712,7 +18386,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20">
@@ -17822,7 +18496,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20">
@@ -17932,7 +18606,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
@@ -18042,7 +18716,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20">
@@ -20042,7 +20716,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -20061,7 +20735,7 @@
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -20142,43 +20816,43 @@
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="F6" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>766</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>754</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>755</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>780</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>768</v>
-      </c>
       <c r="L6" s="17" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -20225,10 +20899,10 @@
     </row>
     <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="20">
@@ -20267,10 +20941,10 @@
     </row>
     <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20">
@@ -20312,7 +20986,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20">
@@ -20354,7 +21028,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20">
@@ -20396,7 +21070,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
@@ -20438,7 +21112,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20">
